--- a/P&E/Clase 02.xlsx
+++ b/P&E/Clase 02.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Video3" sheetId="1" r:id="rId1"/>
+    <sheet name="Pareto" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Datos</t>
   </si>
@@ -57,13 +57,46 @@
     <t>%</t>
   </si>
   <si>
-    <t>Porcentaje</t>
-  </si>
-  <si>
     <t>Es fr*100</t>
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Porcentaje (frecuencia relativa porcentual)</t>
+  </si>
+  <si>
+    <t>Causa</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>Uso indebido del sistema</t>
+  </si>
+  <si>
+    <t>Caídas en la tensión eléctrica</t>
+  </si>
+  <si>
+    <t>Capacitación deficiente del usuario</t>
+  </si>
+  <si>
+    <t>Fallas en la comunicación de red</t>
+  </si>
+  <si>
+    <t>Errores propios del sistema</t>
+  </si>
+  <si>
+    <t>Otras causas</t>
+  </si>
+  <si>
+    <t>Frecuencia relativa porcentual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Frecuencia relativa porcentual acumulada</t>
   </si>
 </sst>
 </file>
@@ -143,12 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -177,11 +207,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -189,6 +235,272 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pareto!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frecuencia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pareto!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Uso indebido del sistema</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capacitación deficiente del usuario</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Otras causas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fallas en la comunicación de red</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Errores propios del sistema</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Caídas en la tensión eléctrica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pareto!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="139834112"/>
+        <c:axId val="139836032"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pareto!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frecuencia relativa porcentual acumulada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Pareto!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="139834112"/>
+        <c:axId val="139836032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="139834112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139836032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="139836032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139834112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaEjercicio" displayName="TablaEjercicio" ref="A1:D8" totalsRowCount="1" headerRowDxfId="2">
+  <sortState ref="A2:B7">
+    <sortCondition descending="1" ref="B2"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Causa" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Frecuencia" totalsRowFunction="sum"/>
+    <tableColumn id="3" name="Frecuencia relativa porcentual" totalsRowFunction="sum" dataDxfId="0">
+      <calculatedColumnFormula>ROUND(TablaEjercicio[[#This Row],[Frecuencia]]/TablaEjercicio[[#Totals],[Frecuencia]]*100,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Frecuencia relativa porcentual acumulada" dataDxfId="1">
+      <calculatedColumnFormula>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,22 +804,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="7"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -528,19 +840,19 @@
       <c r="F2" s="1">
         <v>13</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>2</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>0</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>2</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>1</v>
       </c>
     </row>
@@ -563,19 +875,19 @@
       <c r="F3" s="1">
         <v>15</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>3</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>5</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>1</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>2</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -598,19 +910,19 @@
       <c r="F4" s="1">
         <v>14</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>2</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>3</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>0</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>2</v>
       </c>
     </row>
@@ -633,19 +945,19 @@
       <c r="F5" s="1">
         <v>16</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>3</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>0</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>1</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>4</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>1</v>
       </c>
     </row>
@@ -668,51 +980,51 @@
       <c r="F6" s="1">
         <v>15</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>1</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>2</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>0</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -736,22 +1048,22 @@
         <f>D10*100</f>
         <v>20</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <f>COUNTIF(H$2:L$6,H10)</f>
         <v>6</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <f>SUM(INDEX(I$10:I$15,1):I10)</f>
         <v>6</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <f>I10/I$16</f>
         <v>0.24</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <f>K10*100</f>
         <v>24</v>
       </c>
@@ -776,22 +1088,22 @@
         <f t="shared" ref="E11:E15" si="2">D11*100</f>
         <v>36.666666666666664</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>1</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <f t="shared" ref="I11:I15" si="3">COUNTIF(H$2:L$6,H11)</f>
         <v>7</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <f>SUM(INDEX(I$10:I$15,1):I11)</f>
         <v>13</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <f t="shared" ref="K11:K15" si="4">I11/I$16</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f t="shared" ref="L11:L15" si="5">K11*100</f>
         <v>28.000000000000004</v>
       </c>
@@ -816,22 +1128,22 @@
         <f t="shared" si="2"/>
         <v>26.666666666666668</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>2</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <f>SUM(INDEX(I$10:I$15,1):I12)</f>
         <v>19</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
@@ -856,22 +1168,22 @@
         <f t="shared" si="2"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>3</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <f>SUM(INDEX(I$10:I$15,1):I13)</f>
         <v>23</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
@@ -896,22 +1208,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>4</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <f>SUM(INDEX(I$10:I$15,1):I14)</f>
         <v>24</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -936,62 +1248,62 @@
         <f t="shared" si="2"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>5</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <f>SUM(INDEX(I$10:I$15,1):I15)</f>
         <v>25</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>SUBTOTAL(9,B10:B15)</f>
         <v>30</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
         <f t="shared" ref="D16:E16" si="6">SUBTOTAL(9,D10:D15)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f t="shared" si="6"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <f>SUBTOTAL(9,I10:I15)</f>
         <v>25</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12">
+      <c r="J16" s="11"/>
+      <c r="K16" s="11">
         <f t="shared" ref="K16" si="7">SUBTOTAL(9,K10:K15)</f>
         <v>1</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <f t="shared" ref="L16" si="8">SUBTOTAL(9,L10:L15)</f>
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
@@ -1004,7 +1316,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B22" t="s">
@@ -1017,7 +1329,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
@@ -1030,16 +1342,16 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1054,13 +1366,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <f>ROUND(TablaEjercicio[[#This Row],[Frecuencia]]/TablaEjercicio[[#Totals],[Frecuencia]]*100,0)</f>
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <f>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <f>ROUND(TablaEjercicio[[#This Row],[Frecuencia]]/TablaEjercicio[[#Totals],[Frecuencia]]*100,0)</f>
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <f>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <f>ROUND(TablaEjercicio[[#This Row],[Frecuencia]]/TablaEjercicio[[#Totals],[Frecuencia]]*100,0)</f>
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <f>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <f>ROUND(TablaEjercicio[[#This Row],[Frecuencia]]/TablaEjercicio[[#Totals],[Frecuencia]]*100,0)</f>
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <f>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f>ROUND(TablaEjercicio[[#This Row],[Frecuencia]]/TablaEjercicio[[#Totals],[Frecuencia]]*100,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <f>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f>ROUND(TablaEjercicio[[#This Row],[Frecuencia]]/TablaEjercicio[[#Totals],[Frecuencia]]*100,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <f>SUBTOTAL(109,TablaEjercicio[Frecuencia])</f>
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <f>SUBTOTAL(109,TablaEjercicio[Frecuencia relativa porcentual])</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/P&E/Clase 02.xlsx
+++ b/P&E/Clase 02.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE1065E-5682-45BC-92A6-6E9E6D27C19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video3" sheetId="1" r:id="rId1"/>
     <sheet name="Pareto" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Datos</t>
   </si>
@@ -97,13 +109,28 @@
   </si>
   <si>
     <t>Frecuencia relativa porcentual acumulada</t>
+  </si>
+  <si>
+    <t>80-20</t>
+  </si>
+  <si>
+    <t>Serie XY</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Línea Verticial:</t>
+  </si>
+  <si>
+    <t>https://www.exceldashboardtemplates.com/add-vertical-line-between-columns-in-excel-stacked-column-chart/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +153,14 @@
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,10 +208,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -207,14 +243,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -233,14 +271,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -251,6 +292,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -272,6 +343,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -326,6 +406,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1FF-44D8-BAAF-68AFD1872F0F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -335,9 +420,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="139834112"/>
-        <c:axId val="139836032"/>
+        <c:gapWidth val="219"/>
+        <c:axId val="458317680"/>
+        <c:axId val="458318008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -356,6 +441,56 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pareto!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Uso indebido del sistema</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capacitación deficiente del usuario</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Otras causas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fallas en la comunicación de red</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Errores propios del sistema</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Caídas en la tensión eléctrica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Pareto!$D$2:$D$7</c:f>
@@ -384,6 +519,83 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1FF-44D8-BAAF-68AFD1872F0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pareto!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Pareto!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D1FF-44D8-BAAF-68AFD1872F0F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -395,20 +607,123 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139834112"/>
-        <c:axId val="139836032"/>
+        <c:axId val="466469128"/>
+        <c:axId val="466465848"/>
       </c:lineChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Vertical</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Pareto!$H$2:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Pareto!$I$2:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D1FF-44D8-BAAF-68AFD1872F0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="458317680"/>
+        <c:axId val="458318008"/>
+      </c:scatterChart>
       <c:catAx>
-        <c:axId val="139834112"/>
+        <c:axId val="458317680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139836032"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458318008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -416,31 +731,197 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139836032"/>
+        <c:axId val="458318008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="12"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458317680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="466465848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139834112"/>
-        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466469128"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:catAx>
+        <c:axId val="466469128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="466465848"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -449,24 +930,573 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C68A5BE-0439-4D00-9BA5-D9A3C20CFE28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -485,19 +1515,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaEjercicio" displayName="TablaEjercicio" ref="A1:D8" totalsRowCount="1" headerRowDxfId="2">
-  <sortState ref="A2:B7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaEjercicio" displayName="TablaEjercicio" ref="A1:E8" totalsRowCount="1" headerRowDxfId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
     <sortCondition descending="1" ref="B2"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Causa" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Frecuencia" totalsRowFunction="sum"/>
-    <tableColumn id="3" name="Frecuencia relativa porcentual" totalsRowFunction="sum" dataDxfId="0">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Causa" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Frecuencia" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Frecuencia relativa porcentual" totalsRowFunction="sum" dataDxfId="1">
       <calculatedColumnFormula>ROUND(TablaEjercicio[[#This Row],[Frecuencia]]/TablaEjercicio[[#Totals],[Frecuencia]]*100,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Frecuencia relativa porcentual acumulada" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frecuencia relativa porcentual acumulada" dataDxfId="0">
       <calculatedColumnFormula>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="5" xr3:uid="{6967DDD7-2B34-4899-8D09-AEB99E7DDD02}" name="80-20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -546,7 +1577,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,9 +1610,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -614,6 +1662,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -789,7 +1854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -804,21 +1869,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1365,10 +2430,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1376,21 +2443,33 @@
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1405,8 +2484,17 @@
         <f>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>80</v>
+      </c>
+      <c r="H2">
+        <v>3.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1421,8 +2509,17 @@
         <f>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <v>3.5</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1437,8 +2534,11 @@
         <f>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</f>
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1453,8 +2553,17 @@
         <f>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</f>
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1469,8 +2578,11 @@
         <f>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</f>
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1485,8 +2597,11 @@
         <f>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1500,16 +2615,19 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{0CAFE110-6ABF-4530-B917-FC8054386449}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/P&E/Clase 02.xlsx
+++ b/P&E/Clase 02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE1065E-5682-45BC-92A6-6E9E6D27C19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C371C76-7C71-484B-8707-7734F44FE62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11880" yWindow="0" windowWidth="8040" windowHeight="10920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video3" sheetId="1" r:id="rId1"/>
     <sheet name="Pareto" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Video5" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Datos</t>
   </si>
@@ -124,13 +124,58 @@
   </si>
   <si>
     <t>https://www.exceldashboardtemplates.com/add-vertical-line-between-columns-in-excel-stacked-column-chart/</t>
+  </si>
+  <si>
+    <t>Kilogramos</t>
+  </si>
+  <si>
+    <t>Rango:</t>
+  </si>
+  <si>
+    <t>Dato Máximo - Dato Mínimo</t>
+  </si>
+  <si>
+    <t>X(max) - X(min)</t>
+  </si>
+  <si>
+    <t>Intervalos:</t>
+  </si>
+  <si>
+    <t>K = 1 + 3,322 Log(n)</t>
+  </si>
+  <si>
+    <t>n =</t>
+  </si>
+  <si>
+    <t>Amplitud:</t>
+  </si>
+  <si>
+    <t>Rango / Intervalos (R/K)</t>
+  </si>
+  <si>
+    <t>A =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K = </t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +206,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -246,10 +298,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -842,6 +905,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="466465848"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1869,21 +1933,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2433,7 +2497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -2559,7 +2623,7 @@
       <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2628,12 +2692,451 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="10" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>49</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>38</v>
+      </c>
+      <c r="H2">
+        <v>41</v>
+      </c>
+      <c r="I2">
+        <v>46</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>43</v>
+      </c>
+      <c r="H3">
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <v>43</v>
+      </c>
+      <c r="J3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>44</v>
+      </c>
+      <c r="F4">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>46</v>
+      </c>
+      <c r="I4">
+        <v>48</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>41</v>
+      </c>
+      <c r="E5">
+        <v>44</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>39</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>LARGE(A2:J5,1)</f>
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <f>SMALL(A2:J5,1)</f>
+        <v>33</v>
+      </c>
+      <c r="F10" s="15">
+        <f>C10-D10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <f>COUNT(A2:J5)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>1+3.322*LOG10(D13)</f>
+        <v>6.3220432911914912</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <f>F10/F14</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>33</v>
+      </c>
+      <c r="B22" s="19">
+        <f>A22+F$17</f>
+        <v>36</v>
+      </c>
+      <c r="C22" s="19">
+        <f>AVERAGE(A22,B22)</f>
+        <v>34.5</v>
+      </c>
+      <c r="D22" s="19">
+        <f>COUNTIFS($A$2:$J$5,"&gt;="&amp;A22,$A$2:$J$5,"&lt;"&amp;B22)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="19">
+        <f>SUM(INDEX(D$22:D$28,1):D22)</f>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f>D22/D$29</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <f>B22</f>
+        <v>36</v>
+      </c>
+      <c r="B23" s="19">
+        <f>A23+F$17</f>
+        <v>39</v>
+      </c>
+      <c r="C23" s="19">
+        <f t="shared" ref="C23:C28" si="0">AVERAGE(A23,B23)</f>
+        <v>37.5</v>
+      </c>
+      <c r="D23" s="19">
+        <f>COUNTIFS($A$2:$J$5,"&gt;="&amp;A23,$A$2:$J$5,"&lt;"&amp;B23)</f>
+        <v>9</v>
+      </c>
+      <c r="E23" s="19">
+        <f>SUM(INDEX(D$22:D$28,1):D23)</f>
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F28" si="1">D23/D$29</f>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <f t="shared" ref="A24:A28" si="2">B23</f>
+        <v>39</v>
+      </c>
+      <c r="B24" s="19">
+        <f t="shared" ref="B24:B28" si="3">A24+F$17</f>
+        <v>42</v>
+      </c>
+      <c r="C24" s="19">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="D24" s="19">
+        <f>COUNTIFS($A$2:$J$5,"&gt;="&amp;A24,$A$2:$J$5,"&lt;"&amp;B24)</f>
+        <v>14</v>
+      </c>
+      <c r="E24" s="19">
+        <f>SUM(INDEX(D$22:D$28,1):D24)</f>
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B25" s="19">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="C25" s="19">
+        <f t="shared" si="0"/>
+        <v>43.5</v>
+      </c>
+      <c r="D25" s="19">
+        <f>COUNTIFS($A$2:$J$5,"&gt;="&amp;A25,$A$2:$J$5,"&lt;"&amp;B25)</f>
+        <v>7</v>
+      </c>
+      <c r="E25" s="19">
+        <f>SUM(INDEX(D$22:D$28,1):D25)</f>
+        <v>31</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B26" s="19">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="C26" s="19">
+        <f t="shared" si="0"/>
+        <v>46.5</v>
+      </c>
+      <c r="D26" s="19">
+        <f>COUNTIFS($A$2:$J$5,"&gt;="&amp;A26,$A$2:$J$5,"&lt;"&amp;B26)</f>
+        <v>4</v>
+      </c>
+      <c r="E26" s="19">
+        <f>SUM(INDEX(D$22:D$28,1):D26)</f>
+        <v>35</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B27" s="19">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="C27" s="19">
+        <f t="shared" si="0"/>
+        <v>49.5</v>
+      </c>
+      <c r="D27" s="19">
+        <f>COUNTIFS($A$2:$J$5,"&gt;="&amp;A27,$A$2:$J$5,"&lt;"&amp;B27)</f>
+        <v>3</v>
+      </c>
+      <c r="E27" s="19">
+        <f>SUM(INDEX(D$22:D$28,1):D27)</f>
+        <v>38</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B28" s="19">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="C28" s="19">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="D28" s="19">
+        <f>COUNTIFS($A$2:$J$5,"&gt;="&amp;A28,$A$2:$J$5,"&lt;"&amp;B28)</f>
+        <v>2</v>
+      </c>
+      <c r="E28" s="19">
+        <f>SUM(INDEX(D$22:D$28,1):D28)</f>
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="19">
+        <f>SUBTOTAL(9,D22:D28)</f>
+        <v>40</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19">
+        <f>SUBTOTAL(9,F22:F28)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/P&E/Clase 02.xlsx
+++ b/P&E/Clase 02.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C371C76-7C71-484B-8707-7734F44FE62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38E5B5A-DF2C-48B8-8ABD-62E970B3830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11880" yWindow="0" windowWidth="8040" windowHeight="10920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,11 @@
     <sheet name="Pareto" sheetId="2" r:id="rId2"/>
     <sheet name="Video5" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="VelocidadAmplitud">Video5!$P$10</definedName>
+    <definedName name="VelocidadDatos">Video5!$M$2:$V$6</definedName>
+    <definedName name="VelocidadMinima">Video5!$N$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,8 +32,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>Datos</t>
   </si>
@@ -169,13 +196,61 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>X:</t>
+  </si>
+  <si>
+    <t>Marca de clase</t>
+  </si>
+  <si>
+    <t>f:</t>
+  </si>
+  <si>
+    <t>F:</t>
+  </si>
+  <si>
+    <t>fr:</t>
+  </si>
+  <si>
+    <t>%:</t>
+  </si>
+  <si>
+    <t>Frecuencia absoluta</t>
+  </si>
+  <si>
+    <t>Frecuencia absoluta acumulada</t>
+  </si>
+  <si>
+    <t>Frecuencia relativa</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Velocidad</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Ls</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Intervalo</t>
+  </si>
+  <si>
+    <t>es</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +283,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Symbol"/>
@@ -264,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -299,26 +382,54 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1579,22 +1690,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaEjercicio" displayName="TablaEjercicio" ref="A1:E8" totalsRowCount="1" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaEjercicio" displayName="TablaEjercicio" ref="A1:E8" totalsRowCount="1" headerRowDxfId="9">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
     <sortCondition descending="1" ref="B2"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Causa" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Frecuencia" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Frecuencia relativa porcentual" totalsRowFunction="sum" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Frecuencia relativa porcentual" totalsRowFunction="sum" dataDxfId="8">
       <calculatedColumnFormula>ROUND(TablaEjercicio[[#This Row],[Frecuencia]]/TablaEjercicio[[#Totals],[Frecuencia]]*100,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frecuencia relativa porcentual acumulada" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frecuencia relativa porcentual acumulada" dataDxfId="7">
       <calculatedColumnFormula>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{6967DDD7-2B34-4899-8D09-AEB99E7DDD02}" name="80-20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60079D04-1883-4ABC-A664-71548EED8847}" name="Tabla2" displayName="Tabla2" ref="L13:S21" totalsRowCount="1">
+  <tableColumns count="8">
+    <tableColumn id="8" xr3:uid="{0A53712E-2CE1-4D3E-835E-053851610F89}" name="Intervalo" dataDxfId="6">
+      <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{95B66EDA-4894-4D52-B862-AD79C4B55BA8}" name="Li" dataDxfId="5">
+      <calculatedColumnFormula array="1">IF(Tabla2[[#This Row],[Intervalo]]=1,VelocidadMinima,INDEX(Tabla2[Ls],Tabla2[[#This Row],[Intervalo]]-1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{DA0E75B8-9B26-4EEA-9DB3-F98B1F47E516}" name="Ls">
+      <calculatedColumnFormula>Tabla2[[#This Row],[Li]]+VelocidadAmplitud</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{A442407E-9BF8-48AD-9F38-117CC71388A0}" name="X" dataDxfId="4">
+      <calculatedColumnFormula>AVERAGE(Tabla2[[#This Row],[Li]],Tabla2[[#This Row],[Ls]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{559733AA-4545-40B3-B4E4-BA1C4A552CC9}" name="f" totalsRowFunction="custom" dataDxfId="3">
+      <calculatedColumnFormula>COUNTIFS(VelocidadDatos,"&gt;="&amp;Tabla2[[#This Row],[Li]],VelocidadDatos,"&lt;"&amp;Tabla2[[#This Row],[Ls]])</calculatedColumnFormula>
+      <totalsRowFormula>SUBTOTAL(9,Tabla2[f])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{9513426F-2D77-4DB7-9E3C-FDA866D3F828}" name="F2" dataDxfId="2">
+      <calculatedColumnFormula>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{898808BA-7B1D-423A-AFC5-36F396340D6F}" name="fr" totalsRowFunction="custom" dataDxfId="1">
+      <calculatedColumnFormula>Tabla2[[#This Row],[f]]/COUNT(VelocidadDatos)</calculatedColumnFormula>
+      <totalsRowFormula>SUBTOTAL(9,Tabla2[fr])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{54A61169-26D4-40D1-AB37-CC7B3CFF951D}" name="%" totalsRowFunction="custom" dataDxfId="0">
+      <calculatedColumnFormula>Tabla2[[#This Row],[fr]]*100</calculatedColumnFormula>
+      <totalsRowFormula>SUBTOTAL(9,Tabla2[%])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1933,21 +2079,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2692,23 +2838,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F28"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="22" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>42</v>
       </c>
@@ -2739,8 +2890,38 @@
       <c r="J2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>52</v>
+      </c>
+      <c r="N2">
+        <v>54</v>
+      </c>
+      <c r="O2">
+        <v>51</v>
+      </c>
+      <c r="P2">
+        <v>53</v>
+      </c>
+      <c r="Q2">
+        <v>51</v>
+      </c>
+      <c r="R2">
+        <v>32</v>
+      </c>
+      <c r="S2">
+        <v>51</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2">
+        <v>52</v>
+      </c>
+      <c r="V2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>42</v>
       </c>
@@ -2771,8 +2952,38 @@
       <c r="J3">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>56</v>
+      </c>
+      <c r="N3">
+        <v>30</v>
+      </c>
+      <c r="O3">
+        <v>52</v>
+      </c>
+      <c r="P3">
+        <v>50</v>
+      </c>
+      <c r="Q3">
+        <v>54</v>
+      </c>
+      <c r="R3">
+        <v>52</v>
+      </c>
+      <c r="S3">
+        <v>55</v>
+      </c>
+      <c r="T3">
+        <v>53</v>
+      </c>
+      <c r="U3">
+        <v>55</v>
+      </c>
+      <c r="V3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>53</v>
       </c>
@@ -2803,8 +3014,38 @@
       <c r="J4">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>49</v>
+      </c>
+      <c r="N4">
+        <v>51</v>
+      </c>
+      <c r="O4">
+        <v>57</v>
+      </c>
+      <c r="P4">
+        <v>27</v>
+      </c>
+      <c r="Q4">
+        <v>54</v>
+      </c>
+      <c r="R4">
+        <v>53</v>
+      </c>
+      <c r="S4">
+        <v>50</v>
+      </c>
+      <c r="T4">
+        <v>56</v>
+      </c>
+      <c r="U4">
+        <v>37</v>
+      </c>
+      <c r="V4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>41</v>
       </c>
@@ -2835,21 +3076,114 @@
       <c r="J5">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>54</v>
+      </c>
+      <c r="N5">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>51</v>
+      </c>
+      <c r="P5">
+        <v>55</v>
+      </c>
+      <c r="Q5">
+        <v>60</v>
+      </c>
+      <c r="R5">
+        <v>45</v>
+      </c>
+      <c r="S5">
+        <v>68</v>
+      </c>
+      <c r="T5">
+        <v>53</v>
+      </c>
+      <c r="U5">
+        <v>51</v>
+      </c>
+      <c r="V5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>56</v>
+      </c>
+      <c r="N6">
+        <v>41</v>
+      </c>
+      <c r="O6">
+        <v>54</v>
+      </c>
+      <c r="P6">
+        <v>52</v>
+      </c>
+      <c r="Q6">
+        <v>47</v>
+      </c>
+      <c r="R6">
+        <v>51</v>
+      </c>
+      <c r="S6">
+        <v>52</v>
+      </c>
+      <c r="T6">
+        <v>55</v>
+      </c>
+      <c r="U6">
+        <v>71</v>
+      </c>
+      <c r="V6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8">
+        <f>LARGE(VelocidadDatos,1)</f>
+        <v>71</v>
+      </c>
+      <c r="N8">
+        <f>SMALL(VelocidadDatos,1)</f>
+        <v>27</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="14">
+        <f>M8-N8</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="21">
+        <f>1+3.322*LOG10(COUNT(VelocidadDatos))</f>
+        <v>6.6439783544042541</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>LARGE(A2:J5,1)</f>
         <v>53</v>
@@ -2858,12 +3192,26 @@
         <f>SMALL(A2:J5,1)</f>
         <v>33</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <f>C10-D10</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10">
+        <f>P8/P9</f>
+        <v>6.2857142857142856</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="14">
+        <f>ROUNDUP(N10,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2871,56 +3219,310 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="16" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D13">
         <f>COUNT(A2:J5)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C14">
         <f>1+3.322*LOG10(D13)</f>
         <v>6.3220432911914912</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14" cm="1">
+        <f t="array" ref="L14">ROW(1:1)</f>
+        <v>1</v>
+      </c>
+      <c r="M14" cm="1">
+        <f t="array" ref="M14">IF(Tabla2[[#This Row],[Intervalo]]=1,VelocidadMinima,INDEX(Tabla2[Ls],Tabla2[[#This Row],[Intervalo]]-1))</f>
+        <v>27</v>
+      </c>
+      <c r="N14">
+        <f>Tabla2[[#This Row],[Li]]+VelocidadAmplitud</f>
+        <v>34</v>
+      </c>
+      <c r="O14">
+        <f>AVERAGE(Tabla2[[#This Row],[Li]],Tabla2[[#This Row],[Ls]])</f>
+        <v>30.5</v>
+      </c>
+      <c r="P14">
+        <f>COUNTIFS(VelocidadDatos,"&gt;="&amp;Tabla2[[#This Row],[Li]],VelocidadDatos,"&lt;"&amp;Tabla2[[#This Row],[Ls]])</f>
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <f>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</f>
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <f>Tabla2[[#This Row],[f]]/COUNT(VelocidadDatos)</f>
+        <v>0.06</v>
+      </c>
+      <c r="S14">
+        <f>Tabla2[[#This Row],[fr]]*100</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L15" cm="1">
+        <f t="array" ref="L15">ROW(2:2)</f>
+        <v>2</v>
+      </c>
+      <c r="M15" cm="1">
+        <f t="array" ref="M15">IF(Tabla2[[#This Row],[Intervalo]]=1,VelocidadMinima,INDEX(Tabla2[Ls],Tabla2[[#This Row],[Intervalo]]-1))</f>
+        <v>34</v>
+      </c>
+      <c r="N15">
+        <f>Tabla2[[#This Row],[Li]]+VelocidadAmplitud</f>
+        <v>41</v>
+      </c>
+      <c r="O15">
+        <f>AVERAGE(Tabla2[[#This Row],[Li]],Tabla2[[#This Row],[Ls]])</f>
+        <v>37.5</v>
+      </c>
+      <c r="P15">
+        <f>COUNTIFS(VelocidadDatos,"&gt;="&amp;Tabla2[[#This Row],[Li]],VelocidadDatos,"&lt;"&amp;Tabla2[[#This Row],[Ls]])</f>
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <f>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</f>
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <f>Tabla2[[#This Row],[f]]/COUNT(VelocidadDatos)</f>
+        <v>0.02</v>
+      </c>
+      <c r="S15">
+        <f>Tabla2[[#This Row],[fr]]*100</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="16" t="s">
+      <c r="L16" cm="1">
+        <f t="array" ref="L16">ROW(3:3)</f>
+        <v>3</v>
+      </c>
+      <c r="M16" cm="1">
+        <f t="array" ref="M16">IF(Tabla2[[#This Row],[Intervalo]]=1,VelocidadMinima,INDEX(Tabla2[Ls],Tabla2[[#This Row],[Intervalo]]-1))</f>
+        <v>41</v>
+      </c>
+      <c r="N16">
+        <f>Tabla2[[#This Row],[Li]]+VelocidadAmplitud</f>
+        <v>48</v>
+      </c>
+      <c r="O16">
+        <f>AVERAGE(Tabla2[[#This Row],[Li]],Tabla2[[#This Row],[Ls]])</f>
+        <v>44.5</v>
+      </c>
+      <c r="P16">
+        <f>COUNTIFS(VelocidadDatos,"&gt;="&amp;Tabla2[[#This Row],[Li]],VelocidadDatos,"&lt;"&amp;Tabla2[[#This Row],[Ls]])</f>
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <f>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</f>
+        <v>8</v>
+      </c>
+      <c r="R16">
+        <f>Tabla2[[#This Row],[f]]/COUNT(VelocidadDatos)</f>
+        <v>0.08</v>
+      </c>
+      <c r="S16">
+        <f>Tabla2[[#This Row],[fr]]*100</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C17" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D17">
         <f>F10/F14</f>
         <v>2.8571428571428572</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L17" cm="1">
+        <f t="array" ref="L17">ROW(4:4)</f>
+        <v>4</v>
+      </c>
+      <c r="M17" cm="1">
+        <f t="array" ref="M17">IF(Tabla2[[#This Row],[Intervalo]]=1,VelocidadMinima,INDEX(Tabla2[Ls],Tabla2[[#This Row],[Intervalo]]-1))</f>
+        <v>48</v>
+      </c>
+      <c r="N17">
+        <f>Tabla2[[#This Row],[Li]]+VelocidadAmplitud</f>
+        <v>55</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGE(Tabla2[[#This Row],[Li]],Tabla2[[#This Row],[Ls]])</f>
+        <v>51.5</v>
+      </c>
+      <c r="P17">
+        <f>COUNTIFS(VelocidadDatos,"&gt;="&amp;Tabla2[[#This Row],[Li]],VelocidadDatos,"&lt;"&amp;Tabla2[[#This Row],[Ls]])</f>
+        <v>28</v>
+      </c>
+      <c r="Q17">
+        <f>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</f>
+        <v>36</v>
+      </c>
+      <c r="R17">
+        <f>Tabla2[[#This Row],[f]]/COUNT(VelocidadDatos)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S17">
+        <f>Tabla2[[#This Row],[fr]]*100</f>
+        <v>56.000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L18" cm="1">
+        <f t="array" ref="L18">ROW(5:5)</f>
+        <v>5</v>
+      </c>
+      <c r="M18" cm="1">
+        <f t="array" ref="M18">IF(Tabla2[[#This Row],[Intervalo]]=1,VelocidadMinima,INDEX(Tabla2[Ls],Tabla2[[#This Row],[Intervalo]]-1))</f>
+        <v>55</v>
+      </c>
+      <c r="N18">
+        <f>Tabla2[[#This Row],[Li]]+VelocidadAmplitud</f>
+        <v>62</v>
+      </c>
+      <c r="O18">
+        <f>AVERAGE(Tabla2[[#This Row],[Li]],Tabla2[[#This Row],[Ls]])</f>
+        <v>58.5</v>
+      </c>
+      <c r="P18">
+        <f>COUNTIFS(VelocidadDatos,"&gt;="&amp;Tabla2[[#This Row],[Li]],VelocidadDatos,"&lt;"&amp;Tabla2[[#This Row],[Ls]])</f>
+        <v>12</v>
+      </c>
+      <c r="Q18">
+        <f>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</f>
+        <v>48</v>
+      </c>
+      <c r="R18">
+        <f>Tabla2[[#This Row],[f]]/COUNT(VelocidadDatos)</f>
+        <v>0.24</v>
+      </c>
+      <c r="S18">
+        <f>Tabla2[[#This Row],[fr]]*100</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">ROW(6:6)</f>
+        <v>6</v>
+      </c>
+      <c r="M19" s="22" cm="1">
+        <f t="array" ref="M19">IF(Tabla2[[#This Row],[Intervalo]]=1,VelocidadMinima,INDEX(Tabla2[Ls],Tabla2[[#This Row],[Intervalo]]-1))</f>
+        <v>62</v>
+      </c>
+      <c r="N19">
+        <f>Tabla2[[#This Row],[Li]]+VelocidadAmplitud</f>
+        <v>69</v>
+      </c>
+      <c r="O19">
+        <f>AVERAGE(Tabla2[[#This Row],[Li]],Tabla2[[#This Row],[Ls]])</f>
+        <v>65.5</v>
+      </c>
+      <c r="P19">
+        <f>COUNTIFS(VelocidadDatos,"&gt;="&amp;Tabla2[[#This Row],[Li]],VelocidadDatos,"&lt;"&amp;Tabla2[[#This Row],[Ls]])</f>
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <f>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</f>
+        <v>49</v>
+      </c>
+      <c r="R19">
+        <f>Tabla2[[#This Row],[f]]/COUNT(VelocidadDatos)</f>
+        <v>0.02</v>
+      </c>
+      <c r="S19">
+        <f>Tabla2[[#This Row],[fr]]*100</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L20" cm="1">
+        <f t="array" ref="L20">ROW(7:7)</f>
+        <v>7</v>
+      </c>
+      <c r="M20" s="22" cm="1">
+        <f t="array" ref="M20">IF(Tabla2[[#This Row],[Intervalo]]=1,VelocidadMinima,INDEX(Tabla2[Ls],Tabla2[[#This Row],[Intervalo]]-1))</f>
+        <v>69</v>
+      </c>
+      <c r="N20">
+        <f>Tabla2[[#This Row],[Li]]+VelocidadAmplitud</f>
+        <v>76</v>
+      </c>
+      <c r="O20">
+        <f>AVERAGE(Tabla2[[#This Row],[Li]],Tabla2[[#This Row],[Ls]])</f>
+        <v>72.5</v>
+      </c>
+      <c r="P20">
+        <f>COUNTIFS(VelocidadDatos,"&gt;="&amp;Tabla2[[#This Row],[Li]],VelocidadDatos,"&lt;"&amp;Tabla2[[#This Row],[Ls]])</f>
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <f>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</f>
+        <v>50</v>
+      </c>
+      <c r="R20">
+        <f>Tabla2[[#This Row],[f]]/COUNT(VelocidadDatos)</f>
+        <v>0.02</v>
+      </c>
+      <c r="S20">
+        <f>Tabla2[[#This Row],[fr]]*100</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>44</v>
       </c>
@@ -2939,192 +3541,237 @@
       <c r="F21" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="G21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21">
+        <f>SUBTOTAL(9,Tabla2[f])</f>
+        <v>50</v>
+      </c>
+      <c r="R21">
+        <f>SUBTOTAL(9,Tabla2[fr])</f>
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <f>SUBTOTAL(9,Tabla2[%])</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
         <v>33</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="17">
         <f>A22+F$17</f>
         <v>36</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="17">
         <f>AVERAGE(A22,B22)</f>
         <v>34.5</v>
       </c>
-      <c r="D22" s="19">
-        <f>COUNTIFS($A$2:$J$5,"&gt;="&amp;A22,$A$2:$J$5,"&lt;"&amp;B22)</f>
+      <c r="D22" s="17">
+        <f t="shared" ref="D22:D28" si="0">COUNTIFS($A$2:$J$5,"&gt;="&amp;A22,$A$2:$J$5,"&lt;"&amp;B22)</f>
         <v>1</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="17">
         <f>SUM(INDEX(D$22:D$28,1):D22)</f>
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="17">
         <f>D22/D$29</f>
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="G22" s="17">
+        <f>F22*100</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
         <f>B22</f>
         <v>36</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="17">
         <f>A23+F$17</f>
         <v>39</v>
       </c>
-      <c r="C23" s="19">
-        <f t="shared" ref="C23:C28" si="0">AVERAGE(A23,B23)</f>
+      <c r="C23" s="17">
+        <f t="shared" ref="C23:C28" si="1">AVERAGE(A23,B23)</f>
         <v>37.5</v>
       </c>
-      <c r="D23" s="19">
-        <f>COUNTIFS($A$2:$J$5,"&gt;="&amp;A23,$A$2:$J$5,"&lt;"&amp;B23)</f>
+      <c r="D23" s="17">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="17">
         <f>SUM(INDEX(D$22:D$28,1):D23)</f>
         <v>10</v>
       </c>
-      <c r="F23">
-        <f t="shared" ref="F23:F28" si="1">D23/D$29</f>
+      <c r="F23" s="17">
+        <f t="shared" ref="F23:F28" si="2">D23/D$29</f>
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
-        <f t="shared" ref="A24:A28" si="2">B23</f>
+      <c r="G23" s="17">
+        <f t="shared" ref="G23:G28" si="3">F23*100</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <f t="shared" ref="A24:A28" si="4">B23</f>
         <v>39</v>
       </c>
-      <c r="B24" s="19">
-        <f t="shared" ref="B24:B28" si="3">A24+F$17</f>
+      <c r="B24" s="17">
+        <f t="shared" ref="B24:B28" si="5">A24+F$17</f>
         <v>42</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="17">
+        <f t="shared" si="1"/>
+        <v>40.5</v>
+      </c>
+      <c r="D24" s="17">
         <f t="shared" si="0"/>
-        <v>40.5</v>
-      </c>
-      <c r="D24" s="19">
-        <f>COUNTIFS($A$2:$J$5,"&gt;="&amp;A24,$A$2:$J$5,"&lt;"&amp;B24)</f>
         <v>14</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="17">
         <f>SUM(INDEX(D$22:D$28,1):D24)</f>
         <v>24</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="17">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="B25" s="17">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="C25" s="17">
         <f t="shared" si="1"/>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="B25" s="19">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="C25" s="19">
+        <v>43.5</v>
+      </c>
+      <c r="D25" s="17">
         <f t="shared" si="0"/>
-        <v>43.5</v>
-      </c>
-      <c r="D25" s="19">
-        <f>COUNTIFS($A$2:$J$5,"&gt;="&amp;A25,$A$2:$J$5,"&lt;"&amp;B25)</f>
         <v>7</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="17">
         <f>SUM(INDEX(D$22:D$28,1):D25)</f>
         <v>31</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="17">
+        <f t="shared" si="2"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="B26" s="17">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="C26" s="17">
         <f t="shared" si="1"/>
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="B26" s="19">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="C26" s="19">
+        <v>46.5</v>
+      </c>
+      <c r="D26" s="17">
         <f t="shared" si="0"/>
-        <v>46.5</v>
-      </c>
-      <c r="D26" s="19">
-        <f>COUNTIFS($A$2:$J$5,"&gt;="&amp;A26,$A$2:$J$5,"&lt;"&amp;B26)</f>
         <v>4</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="17">
         <f>SUM(INDEX(D$22:D$28,1):D26)</f>
         <v>35</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="17">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="B27" s="17">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="C27" s="17">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="B27" s="19">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="C27" s="19">
+        <v>49.5</v>
+      </c>
+      <c r="D27" s="17">
         <f t="shared" si="0"/>
-        <v>49.5</v>
-      </c>
-      <c r="D27" s="19">
-        <f>COUNTIFS($A$2:$J$5,"&gt;="&amp;A27,$A$2:$J$5,"&lt;"&amp;B27)</f>
         <v>3</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="17">
         <f>SUM(INDEX(D$22:D$28,1):D27)</f>
         <v>38</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="17">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="B28" s="17">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="C28" s="17">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="B28" s="19">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="C28" s="19">
+        <v>52.5</v>
+      </c>
+      <c r="D28" s="17">
         <f t="shared" si="0"/>
-        <v>52.5</v>
-      </c>
-      <c r="D28" s="19">
-        <f>COUNTIFS($A$2:$J$5,"&gt;="&amp;A28,$A$2:$J$5,"&lt;"&amp;B28)</f>
         <v>2</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="17">
         <f>SUM(INDEX(D$22:D$28,1):D28)</f>
         <v>40</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
+      <c r="F28" s="17">
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="G28" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>4</v>
       </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="19">
         <f>SUBTOTAL(9,D22:D28)</f>
         <v>40</v>
@@ -3134,9 +3781,56 @@
         <f>SUBTOTAL(9,F22:F28)</f>
         <v>0.99999999999999989</v>
       </c>
+      <c r="G29" s="19">
+        <f>SUBTOTAL(9,G22:G28)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/P&E/Clase 02.xlsx
+++ b/P&E/Clase 02.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38E5B5A-DF2C-48B8-8ABD-62E970B3830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE271D40-C585-4A9B-9A2D-8BD8473933EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="0" windowWidth="8040" windowHeight="10920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video3" sheetId="1" r:id="rId1"/>
     <sheet name="Pareto" sheetId="2" r:id="rId2"/>
     <sheet name="Video5" sheetId="3" r:id="rId3"/>
+    <sheet name="Video6" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="EdadesAmplitud">Video6!$D$13</definedName>
+    <definedName name="EdadesDatos">Video6!$B$2:$K$7</definedName>
+    <definedName name="EdadesIntervalo">Video6!$D$12</definedName>
+    <definedName name="EdadesMaximo">Video6!$D$10</definedName>
+    <definedName name="EdadesMinimo">Video6!$D$9</definedName>
+    <definedName name="EdadesNuevoRango">Video6!$D$15</definedName>
+    <definedName name="EdadesRango">Video6!$D$11</definedName>
     <definedName name="VelocidadAmplitud">Video5!$P$10</definedName>
     <definedName name="VelocidadDatos">Video5!$M$2:$V$6</definedName>
     <definedName name="VelocidadMinima">Video5!$N$8</definedName>
@@ -26,6 +34,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -55,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
   <si>
     <t>Datos</t>
   </si>
@@ -244,13 +253,55 @@
   </si>
   <si>
     <t>es</t>
+  </si>
+  <si>
+    <t>Edades</t>
+  </si>
+  <si>
+    <t>Límite inferior</t>
+  </si>
+  <si>
+    <t>Límite superior</t>
+  </si>
+  <si>
+    <t>Fac</t>
+  </si>
+  <si>
+    <t>Fab</t>
+  </si>
+  <si>
+    <t>Fre</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Intervalo (K)</t>
+  </si>
+  <si>
+    <t>Amplitud (A)</t>
+  </si>
+  <si>
+    <t>¬</t>
+  </si>
+  <si>
+    <t>Regla de Sturges</t>
+  </si>
+  <si>
+    <t>Rango (R)</t>
+  </si>
+  <si>
+    <t>Nuevo rango</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +347,19 @@
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -347,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -392,9 +456,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,12 +464,349 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1690,17 +2088,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaEjercicio" displayName="TablaEjercicio" ref="A1:E8" totalsRowCount="1" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaEjercicio" displayName="TablaEjercicio" ref="A1:E8" totalsRowCount="1" headerRowDxfId="27">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
     <sortCondition descending="1" ref="B2"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Causa" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Frecuencia" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Frecuencia relativa porcentual" totalsRowFunction="sum" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Frecuencia relativa porcentual" totalsRowFunction="sum" dataDxfId="26">
       <calculatedColumnFormula>ROUND(TablaEjercicio[[#This Row],[Frecuencia]]/TablaEjercicio[[#Totals],[Frecuencia]]*100,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frecuencia relativa porcentual acumulada" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frecuencia relativa porcentual acumulada" dataDxfId="25">
       <calculatedColumnFormula>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{6967DDD7-2B34-4899-8D09-AEB99E7DDD02}" name="80-20"/>
@@ -1712,35 +2110,67 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60079D04-1883-4ABC-A664-71548EED8847}" name="Tabla2" displayName="Tabla2" ref="L13:S21" totalsRowCount="1">
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{0A53712E-2CE1-4D3E-835E-053851610F89}" name="Intervalo" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{0A53712E-2CE1-4D3E-835E-053851610F89}" name="Intervalo" dataDxfId="24">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{95B66EDA-4894-4D52-B862-AD79C4B55BA8}" name="Li" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{95B66EDA-4894-4D52-B862-AD79C4B55BA8}" name="Li" dataDxfId="23">
       <calculatedColumnFormula array="1">IF(Tabla2[[#This Row],[Intervalo]]=1,VelocidadMinima,INDEX(Tabla2[Ls],Tabla2[[#This Row],[Intervalo]]-1))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{DA0E75B8-9B26-4EEA-9DB3-F98B1F47E516}" name="Ls">
       <calculatedColumnFormula>Tabla2[[#This Row],[Li]]+VelocidadAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A442407E-9BF8-48AD-9F38-117CC71388A0}" name="X" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{A442407E-9BF8-48AD-9F38-117CC71388A0}" name="X" dataDxfId="22">
       <calculatedColumnFormula>AVERAGE(Tabla2[[#This Row],[Li]],Tabla2[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{559733AA-4545-40B3-B4E4-BA1C4A552CC9}" name="f" totalsRowFunction="custom" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{559733AA-4545-40B3-B4E4-BA1C4A552CC9}" name="f" totalsRowFunction="custom" dataDxfId="21">
       <calculatedColumnFormula>COUNTIFS(VelocidadDatos,"&gt;="&amp;Tabla2[[#This Row],[Li]],VelocidadDatos,"&lt;"&amp;Tabla2[[#This Row],[Ls]])</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[f])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9513426F-2D77-4DB7-9E3C-FDA866D3F828}" name="F2" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{9513426F-2D77-4DB7-9E3C-FDA866D3F828}" name="F2" dataDxfId="20">
       <calculatedColumnFormula>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{898808BA-7B1D-423A-AFC5-36F396340D6F}" name="fr" totalsRowFunction="custom" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{898808BA-7B1D-423A-AFC5-36F396340D6F}" name="fr" totalsRowFunction="custom" dataDxfId="19">
       <calculatedColumnFormula>Tabla2[[#This Row],[f]]/COUNT(VelocidadDatos)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[fr])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54A61169-26D4-40D1-AB37-CC7B3CFF951D}" name="%" totalsRowFunction="custom" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{54A61169-26D4-40D1-AB37-CC7B3CFF951D}" name="%" totalsRowFunction="custom" dataDxfId="18">
       <calculatedColumnFormula>Tabla2[[#This Row],[fr]]*100</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[%])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8A81EB00-321D-4B93-AEDE-266C0C67A6F6}" name="Tabla3" displayName="Tabla3" ref="M1:T9" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{232F9B45-447A-40B7-B74F-4FE7C9BE2603}" name="Intervalo" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="8">
+      <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{4D118E85-6EA7-480C-B956-1F53E4957845}" name="Li" dataDxfId="9" totalsRowDxfId="7">
+      <calculatedColumnFormula array="1">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E5BED6C7-BE74-45ED-B47E-F7B1E786DAB0}" name="Ls" dataDxfId="11" totalsRowDxfId="6">
+      <calculatedColumnFormula>Tabla3[[#This Row],[Li]]+EdadesAmplitud</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{415AB08A-FAE7-4C22-A0FA-9190C0850950}" name="x" dataDxfId="15" totalsRowDxfId="5">
+      <calculatedColumnFormula>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{A44A0501-9BA4-4EC2-A260-0DB545AE4011}" name="Fab" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4">
+      <calculatedColumnFormula>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{68C54D13-ACDA-4A0A-A339-895361D688D3}" name="Fac" dataDxfId="0" totalsRowDxfId="3">
+      <calculatedColumnFormula>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D98175C7-3596-4076-B515-7BCE9AD30C3E}" name="Fre" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="2">
+      <calculatedColumnFormula>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{910DF734-058E-4C54-9B3F-E2EECED6859C}" name="Porcentaje" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="1">
+      <calculatedColumnFormula>Tabla3[[#This Row],[Fre]]*100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2079,21 +2509,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="H1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2840,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3172,7 +3602,7 @@
       <c r="L9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="20">
         <f>1+3.322*LOG10(COUNT(VelocidadDatos))</f>
         <v>6.6439783544042541</v>
       </c>
@@ -3230,7 +3660,7 @@
       <c r="L13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="20" t="s">
         <v>58</v>
       </c>
       <c r="N13" t="s">
@@ -3456,7 +3886,7 @@
         <f t="array" ref="L19">ROW(6:6)</f>
         <v>6</v>
       </c>
-      <c r="M19" s="22" cm="1">
+      <c r="M19" s="21" cm="1">
         <f t="array" ref="M19">IF(Tabla2[[#This Row],[Intervalo]]=1,VelocidadMinima,INDEX(Tabla2[Ls],Tabla2[[#This Row],[Intervalo]]-1))</f>
         <v>62</v>
       </c>
@@ -3493,7 +3923,7 @@
         <f t="array" ref="L20">ROW(7:7)</f>
         <v>7</v>
       </c>
-      <c r="M20" s="22" cm="1">
+      <c r="M20" s="21" cm="1">
         <f t="array" ref="M20">IF(Tabla2[[#This Row],[Intervalo]]=1,VelocidadMinima,INDEX(Tabla2[Ls],Tabla2[[#This Row],[Intervalo]]-1))</f>
         <v>69</v>
       </c>
@@ -3523,25 +3953,25 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="18" t="s">
         <v>12</v>
       </c>
       <c r="P21">
@@ -3767,21 +4197,21 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18">
         <f>SUBTOTAL(9,D22:D28)</f>
         <v>40</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19">
+      <c r="E29" s="18"/>
+      <c r="F29" s="18">
         <f>SUBTOTAL(9,F22:F28)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="18">
         <f>SUBTOTAL(9,G22:G28)</f>
         <v>100</v>
       </c>
@@ -3825,6 +4255,642 @@
       <c r="B35" t="s">
         <v>56</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B97094-A41B-4642-A08C-39AD5E851764}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="3.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="3.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" style="24" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="25">
+        <v>20</v>
+      </c>
+      <c r="C2" s="25">
+        <v>58</v>
+      </c>
+      <c r="D2" s="25">
+        <v>22</v>
+      </c>
+      <c r="E2" s="25">
+        <v>43</v>
+      </c>
+      <c r="F2" s="25">
+        <v>17</v>
+      </c>
+      <c r="G2" s="25">
+        <v>19</v>
+      </c>
+      <c r="H2" s="25">
+        <v>16</v>
+      </c>
+      <c r="I2" s="25">
+        <v>12</v>
+      </c>
+      <c r="J2" s="25">
+        <v>23</v>
+      </c>
+      <c r="K2" s="25">
+        <v>17</v>
+      </c>
+      <c r="M2" s="24" cm="1">
+        <f t="array" ref="M2">ROW(1:1)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="24" cm="1">
+        <f t="array" ref="N2">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</f>
+        <v>3</v>
+      </c>
+      <c r="O2" s="24">
+        <f>Tabla3[[#This Row],[Li]]+EdadesAmplitud</f>
+        <v>13</v>
+      </c>
+      <c r="P2" s="24">
+        <f>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</f>
+        <v>8</v>
+      </c>
+      <c r="Q2" s="24">
+        <f>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</f>
+        <v>5</v>
+      </c>
+      <c r="R2" s="24">
+        <f>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</f>
+        <v>5</v>
+      </c>
+      <c r="S2" s="24">
+        <f>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="T2" s="24">
+        <f>Tabla3[[#This Row],[Fre]]*100</f>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="25">
+        <v>40</v>
+      </c>
+      <c r="C3" s="25">
+        <v>16</v>
+      </c>
+      <c r="D3" s="25">
+        <v>23</v>
+      </c>
+      <c r="E3" s="25">
+        <v>14</v>
+      </c>
+      <c r="F3" s="25">
+        <v>42</v>
+      </c>
+      <c r="G3" s="25">
+        <v>34</v>
+      </c>
+      <c r="H3" s="25">
+        <v>5</v>
+      </c>
+      <c r="I3" s="25">
+        <v>63</v>
+      </c>
+      <c r="J3" s="25">
+        <v>15</v>
+      </c>
+      <c r="K3" s="25">
+        <v>28</v>
+      </c>
+      <c r="M3" s="24" cm="1">
+        <f t="array" ref="M3">ROW(2:2)</f>
+        <v>2</v>
+      </c>
+      <c r="N3" s="24" cm="1">
+        <f t="array" ref="N3">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</f>
+        <v>13</v>
+      </c>
+      <c r="O3" s="27">
+        <f>Tabla3[[#This Row],[Li]]+EdadesAmplitud</f>
+        <v>23</v>
+      </c>
+      <c r="P3" s="24">
+        <f>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</f>
+        <v>18</v>
+      </c>
+      <c r="Q3" s="24">
+        <f>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</f>
+        <v>19</v>
+      </c>
+      <c r="R3" s="24">
+        <f>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</f>
+        <v>24</v>
+      </c>
+      <c r="S3" s="24">
+        <f>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</f>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="T3" s="24">
+        <f>Tabla3[[#This Row],[Fre]]*100</f>
+        <v>31.666666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="25">
+        <v>27</v>
+      </c>
+      <c r="C4" s="25">
+        <v>30</v>
+      </c>
+      <c r="D4" s="25">
+        <v>18</v>
+      </c>
+      <c r="E4" s="25">
+        <v>27</v>
+      </c>
+      <c r="F4" s="25">
+        <v>13</v>
+      </c>
+      <c r="G4" s="25">
+        <v>25</v>
+      </c>
+      <c r="H4" s="25">
+        <v>7</v>
+      </c>
+      <c r="I4" s="25">
+        <v>22</v>
+      </c>
+      <c r="J4" s="25">
+        <v>71</v>
+      </c>
+      <c r="K4" s="25">
+        <v>27</v>
+      </c>
+      <c r="M4" s="24" cm="1">
+        <f t="array" ref="M4">ROW(3:3)</f>
+        <v>3</v>
+      </c>
+      <c r="N4" s="24" cm="1">
+        <f t="array" ref="N4">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</f>
+        <v>23</v>
+      </c>
+      <c r="O4" s="27">
+        <f>Tabla3[[#This Row],[Li]]+EdadesAmplitud</f>
+        <v>33</v>
+      </c>
+      <c r="P4" s="24">
+        <f>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</f>
+        <v>28</v>
+      </c>
+      <c r="Q4" s="24">
+        <f>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</f>
+        <v>16</v>
+      </c>
+      <c r="R4" s="24">
+        <f>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</f>
+        <v>40</v>
+      </c>
+      <c r="S4" s="24">
+        <f>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="T4" s="24">
+        <f>Tabla3[[#This Row],[Fre]]*100</f>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="25">
+        <v>12</v>
+      </c>
+      <c r="C5" s="25">
+        <v>15</v>
+      </c>
+      <c r="D5" s="25">
+        <v>21</v>
+      </c>
+      <c r="E5" s="25">
+        <v>39</v>
+      </c>
+      <c r="F5" s="25">
+        <v>60</v>
+      </c>
+      <c r="G5" s="25">
+        <v>22</v>
+      </c>
+      <c r="H5" s="25">
+        <v>17</v>
+      </c>
+      <c r="I5" s="25">
+        <v>45</v>
+      </c>
+      <c r="J5" s="25">
+        <v>37</v>
+      </c>
+      <c r="K5" s="25">
+        <v>34</v>
+      </c>
+      <c r="M5" s="24" cm="1">
+        <f t="array" ref="M5">ROW(4:4)</f>
+        <v>4</v>
+      </c>
+      <c r="N5" s="24" cm="1">
+        <f t="array" ref="N5">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</f>
+        <v>33</v>
+      </c>
+      <c r="O5" s="27">
+        <f>Tabla3[[#This Row],[Li]]+EdadesAmplitud</f>
+        <v>43</v>
+      </c>
+      <c r="P5" s="24">
+        <f>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</f>
+        <v>38</v>
+      </c>
+      <c r="Q5" s="24">
+        <f>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</f>
+        <v>8</v>
+      </c>
+      <c r="R5" s="24">
+        <f>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</f>
+        <v>48</v>
+      </c>
+      <c r="S5" s="24">
+        <f>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="T5" s="24">
+        <f>Tabla3[[#This Row],[Fre]]*100</f>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="25">
+        <v>53</v>
+      </c>
+      <c r="C6" s="25">
+        <v>18</v>
+      </c>
+      <c r="D6" s="25">
+        <v>28</v>
+      </c>
+      <c r="E6" s="25">
+        <v>9</v>
+      </c>
+      <c r="F6" s="25">
+        <v>30</v>
+      </c>
+      <c r="G6" s="25">
+        <v>16</v>
+      </c>
+      <c r="H6" s="25">
+        <v>39</v>
+      </c>
+      <c r="I6" s="25">
+        <v>34</v>
+      </c>
+      <c r="J6" s="25">
+        <v>17</v>
+      </c>
+      <c r="K6" s="25">
+        <v>50</v>
+      </c>
+      <c r="M6" s="24" cm="1">
+        <f t="array" ref="M6">ROW(5:5)</f>
+        <v>5</v>
+      </c>
+      <c r="N6" s="24" cm="1">
+        <f t="array" ref="N6">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</f>
+        <v>43</v>
+      </c>
+      <c r="O6" s="27">
+        <f>Tabla3[[#This Row],[Li]]+EdadesAmplitud</f>
+        <v>53</v>
+      </c>
+      <c r="P6" s="24">
+        <f>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</f>
+        <v>48</v>
+      </c>
+      <c r="Q6" s="24">
+        <f>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</f>
+        <v>6</v>
+      </c>
+      <c r="R6" s="24">
+        <f>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</f>
+        <v>54</v>
+      </c>
+      <c r="S6" s="24">
+        <f>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</f>
+        <v>0.1</v>
+      </c>
+      <c r="T6" s="24">
+        <f>Tabla3[[#This Row],[Fre]]*100</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="25">
+        <v>23</v>
+      </c>
+      <c r="C7" s="25">
+        <v>45</v>
+      </c>
+      <c r="D7" s="25">
+        <v>25</v>
+      </c>
+      <c r="E7" s="25">
+        <v>44</v>
+      </c>
+      <c r="F7" s="25">
+        <v>29</v>
+      </c>
+      <c r="G7" s="25">
+        <v>61</v>
+      </c>
+      <c r="H7" s="25">
+        <v>28</v>
+      </c>
+      <c r="I7" s="25">
+        <v>24</v>
+      </c>
+      <c r="J7" s="25">
+        <v>49</v>
+      </c>
+      <c r="K7" s="25">
+        <v>24</v>
+      </c>
+      <c r="M7" s="24" cm="1">
+        <f t="array" ref="M7">ROW(6:6)</f>
+        <v>6</v>
+      </c>
+      <c r="N7" s="24" cm="1">
+        <f t="array" ref="N7">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</f>
+        <v>53</v>
+      </c>
+      <c r="O7" s="27">
+        <f>Tabla3[[#This Row],[Li]]+EdadesAmplitud</f>
+        <v>63</v>
+      </c>
+      <c r="P7" s="24">
+        <f>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</f>
+        <v>58</v>
+      </c>
+      <c r="Q7" s="24">
+        <f>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</f>
+        <v>4</v>
+      </c>
+      <c r="R7" s="24">
+        <f>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</f>
+        <v>58</v>
+      </c>
+      <c r="S7" s="24">
+        <f>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="T7" s="24">
+        <f>Tabla3[[#This Row],[Fre]]*100</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M8" s="24" cm="1">
+        <f t="array" ref="M8">ROW(7:7)</f>
+        <v>7</v>
+      </c>
+      <c r="N8" s="24" cm="1">
+        <f t="array" ref="N8">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</f>
+        <v>63</v>
+      </c>
+      <c r="O8" s="27">
+        <f>Tabla3[[#This Row],[Li]]+EdadesAmplitud</f>
+        <v>73</v>
+      </c>
+      <c r="P8" s="24">
+        <f>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</f>
+        <v>68</v>
+      </c>
+      <c r="Q8" s="24">
+        <f>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</f>
+        <v>2</v>
+      </c>
+      <c r="R8" s="24">
+        <f>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</f>
+        <v>60</v>
+      </c>
+      <c r="S8" s="24">
+        <f>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T8" s="24">
+        <f>Tabla3[[#This Row],[Fre]]*100</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="23">
+        <f>SMALL(EdadesDatos,1)</f>
+        <v>5</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="24">
+        <f>SUBTOTAL(109,Tabla3[Fab])</f>
+        <v>60</v>
+      </c>
+      <c r="S9" s="24">
+        <f>SUBTOTAL(109,Tabla3[Fre])</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="T9" s="24">
+        <f>SUBTOTAL(109,Tabla3[Porcentaje])</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="23">
+        <f>LARGE(EdadesDatos,1)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="23">
+        <f>D10-D9</f>
+        <v>66</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="24">
+        <f>1+3.322*LOG10(COUNT(EdadesDatos))</f>
+        <v>6.9070184537744641</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="23">
+        <f>IF(ISODD(ROUND(B12,0)),ROUND(B12,0),ROUNDUP(B12,0))</f>
+        <v>7</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="T12" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="24">
+        <f>D11/EdadesIntervalo</f>
+        <v>9.4285714285714288</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="23">
+        <f>ROUNDUP(B13,0)</f>
+        <v>10</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M14" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="24">
+        <f>EdadesAmplitud*EdadesIntervalo-EdadesRango</f>
+        <v>4</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M16" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="16"/>
+      <c r="M18" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/P&E/Clase 02.xlsx
+++ b/P&E/Clase 02.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE271D40-C585-4A9B-9A2D-8BD8473933EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B3841F-3E3B-4042-AB4C-2C66F4540A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="15" windowWidth="7830" windowHeight="10920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video3" sheetId="1" r:id="rId1"/>
     <sheet name="Pareto" sheetId="2" r:id="rId2"/>
     <sheet name="Video5" sheetId="3" r:id="rId3"/>
     <sheet name="Video6" sheetId="4" r:id="rId4"/>
+    <sheet name="Apunte" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="EdadesAmplitud">Video6!$D$13</definedName>
@@ -21,6 +22,13 @@
     <definedName name="EdadesMinimo">Video6!$D$9</definedName>
     <definedName name="EdadesNuevoRango">Video6!$D$15</definedName>
     <definedName name="EdadesRango">Video6!$D$11</definedName>
+    <definedName name="HorasAmplitud">Video6!$D$33</definedName>
+    <definedName name="HorasDatos">Video6!$B$23:$K$27</definedName>
+    <definedName name="HorasIntervalo">Video6!$D$32</definedName>
+    <definedName name="HorasMaximo">Video6!$D$30</definedName>
+    <definedName name="HorasMinimo">Video6!$D$29</definedName>
+    <definedName name="HorasNuevoRango">Video6!$D$35</definedName>
+    <definedName name="HorasRango">Video6!$D$31</definedName>
     <definedName name="VelocidadAmplitud">Video5!$P$10</definedName>
     <definedName name="VelocidadDatos">Video5!$M$2:$V$6</definedName>
     <definedName name="VelocidadMinima">Video5!$N$8</definedName>
@@ -64,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="80">
   <si>
     <t>Datos</t>
   </si>
@@ -295,6 +303,15 @@
   </si>
   <si>
     <t>Nuevo rango</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Porcent</t>
   </si>
 </sst>
 </file>
@@ -362,12 +379,15 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp"/>
     </fill>
   </fills>
   <borders count="3">
@@ -411,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -464,21 +484,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="46">
     <dxf>
       <font>
         <b val="0"/>
@@ -551,6 +575,373 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -769,42 +1160,6 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -865,6 +1220,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Diagrama de Pareto</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2088,17 +2468,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaEjercicio" displayName="TablaEjercicio" ref="A1:E8" totalsRowCount="1" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaEjercicio" displayName="TablaEjercicio" ref="A1:E8" totalsRowCount="1" headerRowDxfId="45">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
     <sortCondition descending="1" ref="B2"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Causa" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Frecuencia" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Frecuencia relativa porcentual" totalsRowFunction="sum" dataDxfId="26">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Frecuencia relativa porcentual" totalsRowFunction="sum" dataDxfId="44">
       <calculatedColumnFormula>ROUND(TablaEjercicio[[#This Row],[Frecuencia]]/TablaEjercicio[[#Totals],[Frecuencia]]*100,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frecuencia relativa porcentual acumulada" dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frecuencia relativa porcentual acumulada" dataDxfId="43">
       <calculatedColumnFormula>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{6967DDD7-2B34-4899-8D09-AEB99E7DDD02}" name="80-20"/>
@@ -2110,30 +2490,30 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60079D04-1883-4ABC-A664-71548EED8847}" name="Tabla2" displayName="Tabla2" ref="L13:S21" totalsRowCount="1">
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{0A53712E-2CE1-4D3E-835E-053851610F89}" name="Intervalo" dataDxfId="24">
+    <tableColumn id="8" xr3:uid="{0A53712E-2CE1-4D3E-835E-053851610F89}" name="Intervalo" dataDxfId="42">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{95B66EDA-4894-4D52-B862-AD79C4B55BA8}" name="Li" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{95B66EDA-4894-4D52-B862-AD79C4B55BA8}" name="Li" dataDxfId="41">
       <calculatedColumnFormula array="1">IF(Tabla2[[#This Row],[Intervalo]]=1,VelocidadMinima,INDEX(Tabla2[Ls],Tabla2[[#This Row],[Intervalo]]-1))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{DA0E75B8-9B26-4EEA-9DB3-F98B1F47E516}" name="Ls">
       <calculatedColumnFormula>Tabla2[[#This Row],[Li]]+VelocidadAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A442407E-9BF8-48AD-9F38-117CC71388A0}" name="X" dataDxfId="22">
+    <tableColumn id="3" xr3:uid="{A442407E-9BF8-48AD-9F38-117CC71388A0}" name="X" dataDxfId="40">
       <calculatedColumnFormula>AVERAGE(Tabla2[[#This Row],[Li]],Tabla2[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{559733AA-4545-40B3-B4E4-BA1C4A552CC9}" name="f" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="4" xr3:uid="{559733AA-4545-40B3-B4E4-BA1C4A552CC9}" name="f" totalsRowFunction="custom" dataDxfId="39">
       <calculatedColumnFormula>COUNTIFS(VelocidadDatos,"&gt;="&amp;Tabla2[[#This Row],[Li]],VelocidadDatos,"&lt;"&amp;Tabla2[[#This Row],[Ls]])</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[f])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9513426F-2D77-4DB7-9E3C-FDA866D3F828}" name="F2" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{9513426F-2D77-4DB7-9E3C-FDA866D3F828}" name="F2" dataDxfId="38">
       <calculatedColumnFormula>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{898808BA-7B1D-423A-AFC5-36F396340D6F}" name="fr" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{898808BA-7B1D-423A-AFC5-36F396340D6F}" name="fr" totalsRowFunction="custom" dataDxfId="37">
       <calculatedColumnFormula>Tabla2[[#This Row],[f]]/COUNT(VelocidadDatos)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[fr])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54A61169-26D4-40D1-AB37-CC7B3CFF951D}" name="%" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{54A61169-26D4-40D1-AB37-CC7B3CFF951D}" name="%" totalsRowFunction="custom" dataDxfId="36">
       <calculatedColumnFormula>Tabla2[[#This Row],[fr]]*100</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[%])</totalsRowFormula>
     </tableColumn>
@@ -2143,31 +2523,63 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8A81EB00-321D-4B93-AEDE-266C0C67A6F6}" name="Tabla3" displayName="Tabla3" ref="M1:T9" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8A81EB00-321D-4B93-AEDE-266C0C67A6F6}" name="Tabla3" displayName="Tabla3" ref="M1:T9" totalsRowCount="1" headerRowDxfId="35" dataDxfId="34">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{232F9B45-447A-40B7-B74F-4FE7C9BE2603}" name="Intervalo" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="8">
+    <tableColumn id="1" xr3:uid="{232F9B45-447A-40B7-B74F-4FE7C9BE2603}" name="Intervalo" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4D118E85-6EA7-480C-B956-1F53E4957845}" name="Li" dataDxfId="9" totalsRowDxfId="7">
+    <tableColumn id="2" xr3:uid="{4D118E85-6EA7-480C-B956-1F53E4957845}" name="Li" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula array="1">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E5BED6C7-BE74-45ED-B47E-F7B1E786DAB0}" name="Ls" dataDxfId="11" totalsRowDxfId="6">
+    <tableColumn id="3" xr3:uid="{E5BED6C7-BE74-45ED-B47E-F7B1E786DAB0}" name="Ls" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>Tabla3[[#This Row],[Li]]+EdadesAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{415AB08A-FAE7-4C22-A0FA-9190C0850950}" name="x" dataDxfId="15" totalsRowDxfId="5">
+    <tableColumn id="4" xr3:uid="{415AB08A-FAE7-4C22-A0FA-9190C0850950}" name="x" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A44A0501-9BA4-4EC2-A260-0DB545AE4011}" name="Fab" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="4">
+    <tableColumn id="5" xr3:uid="{A44A0501-9BA4-4EC2-A260-0DB545AE4011}" name="Fab" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{68C54D13-ACDA-4A0A-A339-895361D688D3}" name="Fac" dataDxfId="0" totalsRowDxfId="3">
+    <tableColumn id="6" xr3:uid="{68C54D13-ACDA-4A0A-A339-895361D688D3}" name="Fac" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D98175C7-3596-4076-B515-7BCE9AD30C3E}" name="Fre" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="2">
+    <tableColumn id="7" xr3:uid="{D98175C7-3596-4076-B515-7BCE9AD30C3E}" name="Fre" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{910DF734-058E-4C54-9B3F-E2EECED6859C}" name="Porcentaje" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="1">
+    <tableColumn id="8" xr3:uid="{910DF734-058E-4C54-9B3F-E2EECED6859C}" name="Porcentaje" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>Tabla3[[#This Row],[Fre]]*100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F3DE1B53-3FA1-4535-97AB-C3383C2399DC}" name="HorasTabla" displayName="HorasTabla" ref="M22:T30" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{7E0FFDAC-17B2-487B-90CE-01301CE9120F}" name="Interval" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="8">
+      <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{A572D211-8943-48C3-94B5-77627F28FB47}" name="Li" dataDxfId="0" totalsRowDxfId="7">
+      <calculatedColumnFormula array="1">IF(HorasTabla[[#This Row],[Interval]]=1,HorasMinimo,INDEX(HorasTabla[Ls],HorasTabla[[#This Row],[Interval]]-1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{5F43143E-70A3-4310-AAD3-C8718D116957}" name="Ls" dataDxfId="11" totalsRowDxfId="6">
+      <calculatedColumnFormula>HorasTabla[[#This Row],[Li]]+HorasAmplitud</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{EF0CC855-F805-473D-BE26-69CBF1656CCE}" name="x" dataDxfId="15" totalsRowDxfId="5">
+      <calculatedColumnFormula>AVERAGE(HorasTabla[[#This Row],[Li]],HorasTabla[[#This Row],[Ls]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{D7C90DA4-E208-4D98-99DD-4C3F92306AC0}" name="Fab" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="4">
+      <calculatedColumnFormula>COUNTIFS(HorasDatos,"&gt;="&amp;HorasTabla[[#This Row],[Li]],HorasDatos,"&lt;"&amp;HorasTabla[[#This Row],[Ls]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{7CD30B42-13D9-4431-BA16-F5DE4FDE8893}" name="Fac" dataDxfId="14" totalsRowDxfId="3">
+      <calculatedColumnFormula>SUM(INDEX(HorasTabla[Fab],1):HorasTabla[[#This Row],[Fab]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D6F72C58-6AB5-4E12-ACF1-8F5447E7AA37}" name="Fre" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="2">
+      <calculatedColumnFormula>HorasTabla[[#This Row],[Fab]]/COUNT(HorasDatos)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{6A11D84D-8745-4BB3-A4CC-9EB2D4633332}" name="Porcent" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="1">
+      <calculatedColumnFormula>HorasTabla[[#This Row],[Fre]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -2509,21 +2921,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="H1" s="22" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="H1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3073,8 +3485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4267,636 +4679,1251 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B97094-A41B-4642-A08C-39AD5E851764}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="M20" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="3.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="3.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="15.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" style="24" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="24"/>
+    <col min="1" max="1" width="18.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="4.28515625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="3.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" style="23" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="25" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>20</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>58</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <v>22</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="24">
         <v>43</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <v>17</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>19</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="24">
         <v>16</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <v>12</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="24">
         <v>23</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="24">
         <v>17</v>
       </c>
-      <c r="M2" s="24" cm="1">
+      <c r="M2" s="23" cm="1">
         <f t="array" ref="M2">ROW(1:1)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="24" cm="1">
+      <c r="N2" s="23" cm="1">
         <f t="array" ref="N2">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</f>
         <v>3</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="23">
         <f>Tabla3[[#This Row],[Li]]+EdadesAmplitud</f>
         <v>13</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="23">
         <f>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</f>
         <v>8</v>
       </c>
-      <c r="Q2" s="24">
+      <c r="Q2" s="23">
         <f>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</f>
         <v>5</v>
       </c>
-      <c r="R2" s="24">
+      <c r="R2" s="23">
         <f>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</f>
         <v>5</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="23">
         <f>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="T2" s="24">
+      <c r="T2" s="23">
         <f>Tabla3[[#This Row],[Fre]]*100</f>
         <v>8.3333333333333321</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>40</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>16</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>23</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <v>14</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>42</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <v>34</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="24">
         <v>5</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <v>63</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <v>15</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="24">
         <v>28</v>
       </c>
-      <c r="M3" s="24" cm="1">
+      <c r="M3" s="23" cm="1">
         <f t="array" ref="M3">ROW(2:2)</f>
         <v>2</v>
       </c>
-      <c r="N3" s="24" cm="1">
+      <c r="N3" s="23" cm="1">
         <f t="array" ref="N3">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</f>
         <v>13</v>
       </c>
-      <c r="O3" s="27">
+      <c r="O3" s="26">
         <f>Tabla3[[#This Row],[Li]]+EdadesAmplitud</f>
         <v>23</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="23">
         <f>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</f>
         <v>18</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="23">
         <f>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</f>
         <v>19</v>
       </c>
-      <c r="R3" s="24">
+      <c r="R3" s="23">
         <f>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</f>
         <v>24</v>
       </c>
-      <c r="S3" s="24">
+      <c r="S3" s="23">
         <f>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</f>
         <v>0.31666666666666665</v>
       </c>
-      <c r="T3" s="24">
+      <c r="T3" s="23">
         <f>Tabla3[[#This Row],[Fre]]*100</f>
         <v>31.666666666666664</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>27</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>30</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>18</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>27</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>13</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>25</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <v>7</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <v>22</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <v>71</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="24">
         <v>27</v>
       </c>
-      <c r="M4" s="24" cm="1">
+      <c r="M4" s="23" cm="1">
         <f t="array" ref="M4">ROW(3:3)</f>
         <v>3</v>
       </c>
-      <c r="N4" s="24" cm="1">
+      <c r="N4" s="23" cm="1">
         <f t="array" ref="N4">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</f>
         <v>23</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="26">
         <f>Tabla3[[#This Row],[Li]]+EdadesAmplitud</f>
         <v>33</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="23">
         <f>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</f>
         <v>28</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="23">
         <f>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</f>
         <v>16</v>
       </c>
-      <c r="R4" s="24">
+      <c r="R4" s="23">
         <f>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</f>
         <v>40</v>
       </c>
-      <c r="S4" s="24">
+      <c r="S4" s="23">
         <f>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="T4" s="24">
+      <c r="T4" s="23">
         <f>Tabla3[[#This Row],[Fre]]*100</f>
         <v>26.666666666666668</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>12</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>15</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>21</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>39</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>60</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <v>22</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <v>17</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>45</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <v>37</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <v>34</v>
       </c>
-      <c r="M5" s="24" cm="1">
+      <c r="M5" s="23" cm="1">
         <f t="array" ref="M5">ROW(4:4)</f>
         <v>4</v>
       </c>
-      <c r="N5" s="24" cm="1">
+      <c r="N5" s="23" cm="1">
         <f t="array" ref="N5">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</f>
         <v>33</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="26">
         <f>Tabla3[[#This Row],[Li]]+EdadesAmplitud</f>
         <v>43</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="23">
         <f>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</f>
         <v>38</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="23">
         <f>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</f>
         <v>8</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="23">
         <f>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</f>
         <v>48</v>
       </c>
-      <c r="S5" s="24">
+      <c r="S5" s="23">
         <f>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="T5" s="24">
+      <c r="T5" s="23">
         <f>Tabla3[[#This Row],[Fre]]*100</f>
         <v>13.333333333333334</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>53</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>18</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>28</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>9</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>30</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <v>16</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="24">
         <v>39</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <v>34</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <v>17</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="24">
         <v>50</v>
       </c>
-      <c r="M6" s="24" cm="1">
+      <c r="M6" s="23" cm="1">
         <f t="array" ref="M6">ROW(5:5)</f>
         <v>5</v>
       </c>
-      <c r="N6" s="24" cm="1">
+      <c r="N6" s="23" cm="1">
         <f t="array" ref="N6">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</f>
         <v>43</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="26">
         <f>Tabla3[[#This Row],[Li]]+EdadesAmplitud</f>
         <v>53</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="23">
         <f>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</f>
         <v>48</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="23">
         <f>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</f>
         <v>6</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="23">
         <f>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</f>
         <v>54</v>
       </c>
-      <c r="S6" s="24">
+      <c r="S6" s="23">
         <f>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</f>
         <v>0.1</v>
       </c>
-      <c r="T6" s="24">
+      <c r="T6" s="23">
         <f>Tabla3[[#This Row],[Fre]]*100</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>23</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>45</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>25</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <v>44</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>29</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>61</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <v>28</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <v>24</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="24">
         <v>49</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="24">
         <v>24</v>
       </c>
-      <c r="M7" s="24" cm="1">
+      <c r="M7" s="23" cm="1">
         <f t="array" ref="M7">ROW(6:6)</f>
         <v>6</v>
       </c>
-      <c r="N7" s="24" cm="1">
+      <c r="N7" s="23" cm="1">
         <f t="array" ref="N7">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</f>
         <v>53</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="26">
         <f>Tabla3[[#This Row],[Li]]+EdadesAmplitud</f>
         <v>63</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="23">
         <f>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</f>
         <v>58</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="23">
         <f>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</f>
         <v>4</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="23">
         <f>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</f>
         <v>58</v>
       </c>
-      <c r="S7" s="24">
+      <c r="S7" s="23">
         <f>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="T7" s="24">
+      <c r="T7" s="23">
         <f>Tabla3[[#This Row],[Fre]]*100</f>
         <v>6.666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M8" s="24" cm="1">
+      <c r="M8" s="23" cm="1">
         <f t="array" ref="M8">ROW(7:7)</f>
         <v>7</v>
       </c>
-      <c r="N8" s="24" cm="1">
+      <c r="N8" s="23" cm="1">
         <f t="array" ref="N8">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</f>
         <v>63</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="26">
         <f>Tabla3[[#This Row],[Li]]+EdadesAmplitud</f>
         <v>73</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="23">
         <f>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</f>
         <v>68</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="23">
         <f>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</f>
         <v>2</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="23">
         <f>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</f>
         <v>60</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="23">
         <f>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="T8" s="24">
+      <c r="T8" s="23">
         <f>Tabla3[[#This Row],[Fre]]*100</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <f>SMALL(EdadesDatos,1)</f>
         <v>5</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="23">
         <f>SUBTOTAL(109,Tabla3[Fab])</f>
         <v>60</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="23">
         <f>SUBTOTAL(109,Tabla3[Fre])</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="T9" s="24">
+      <c r="T9" s="23">
         <f>SUBTOTAL(109,Tabla3[Porcentaje])</f>
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <f>LARGE(EdadesDatos,1)</f>
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <f>D10-D9</f>
         <v>66</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <f>1+3.322*LOG10(COUNT(EdadesDatos))</f>
         <v>6.9070184537744641</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <f>IF(ISODD(ROUND(B12,0)),ROUND(B12,0),ROUNDUP(B12,0))</f>
         <v>7</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="23" t="s">
         <v>64</v>
       </c>
       <c r="S12" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="T12" s="24" t="s">
+      <c r="T12" s="23" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <f>D11/EdadesIntervalo</f>
         <v>9.4285714285714288</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <f>ROUNDUP(B13,0)</f>
         <v>10</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="23" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="24" t="s">
+      <c r="N14" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="22">
         <f>EdadesAmplitud*EdadesIntervalo-EdadesRango</f>
         <v>4</v>
       </c>
-      <c r="M15" s="28" t="s">
+      <c r="M15" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N15" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M16" s="28" t="s">
+      <c r="M16" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="N16" s="23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M17" s="28" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M17" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="N17" s="24" t="s">
+      <c r="N17" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C18" s="16"/>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="16"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="O22" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="R22" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="S22" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="T22" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="24">
+        <v>3</v>
+      </c>
+      <c r="C23" s="24">
+        <v>2</v>
+      </c>
+      <c r="D23" s="24">
+        <v>4</v>
+      </c>
+      <c r="E23" s="24">
+        <v>3</v>
+      </c>
+      <c r="F23" s="24">
+        <v>1</v>
+      </c>
+      <c r="G23" s="24">
+        <v>2</v>
+      </c>
+      <c r="H23" s="24">
+        <v>0</v>
+      </c>
+      <c r="I23" s="24">
+        <v>1</v>
+      </c>
+      <c r="J23" s="24">
+        <v>2</v>
+      </c>
+      <c r="K23" s="24">
+        <v>3</v>
+      </c>
+      <c r="M23" s="23" cm="1">
+        <f t="array" ref="M23">ROW(1:1)</f>
+        <v>1</v>
+      </c>
+      <c r="N23" s="23" cm="1">
+        <f t="array" ref="N23">IF(HorasTabla[[#This Row],[Interval]]=1,HorasMinimo,INDEX(HorasTabla[Ls],HorasTabla[[#This Row],[Interval]]-1))</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="23">
+        <f>HorasTabla[[#This Row],[Li]]+HorasAmplitud</f>
+        <v>4</v>
+      </c>
+      <c r="P23" s="23">
+        <f>AVERAGE(HorasTabla[[#This Row],[Li]],HorasTabla[[#This Row],[Ls]])</f>
+        <v>2</v>
+      </c>
+      <c r="Q23" s="23">
+        <f>COUNTIFS(HorasDatos,"&gt;="&amp;HorasTabla[[#This Row],[Li]],HorasDatos,"&lt;"&amp;HorasTabla[[#This Row],[Ls]])</f>
+        <v>21</v>
+      </c>
+      <c r="R23" s="23">
+        <f>SUM(INDEX(HorasTabla[Fab],1):HorasTabla[[#This Row],[Fab]])</f>
+        <v>21</v>
+      </c>
+      <c r="S23" s="23">
+        <f>HorasTabla[[#This Row],[Fab]]/COUNT(HorasDatos)</f>
+        <v>0.42</v>
+      </c>
+      <c r="T23" s="23">
+        <f>HorasTabla[[#This Row],[Fre]]*100</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="24">
+        <v>6</v>
+      </c>
+      <c r="D24" s="24">
+        <v>8</v>
+      </c>
+      <c r="E24" s="24">
+        <v>5</v>
+      </c>
+      <c r="F24" s="24">
+        <v>15</v>
+      </c>
+      <c r="G24" s="24">
+        <v>6</v>
+      </c>
+      <c r="H24" s="24">
+        <v>4</v>
+      </c>
+      <c r="I24" s="24">
+        <v>6</v>
+      </c>
+      <c r="J24" s="24">
+        <v>10</v>
+      </c>
+      <c r="K24" s="24">
+        <v>6</v>
+      </c>
+      <c r="M24" s="23" cm="1">
+        <f t="array" ref="M24">ROW(2:2)</f>
+        <v>2</v>
+      </c>
+      <c r="N24" s="23" cm="1">
+        <f t="array" ref="N24">IF(HorasTabla[[#This Row],[Interval]]=1,HorasMinimo,INDEX(HorasTabla[Ls],HorasTabla[[#This Row],[Interval]]-1))</f>
+        <v>4</v>
+      </c>
+      <c r="O24" s="26">
+        <f>HorasTabla[[#This Row],[Li]]+HorasAmplitud</f>
+        <v>8</v>
+      </c>
+      <c r="P24" s="23">
+        <f>AVERAGE(HorasTabla[[#This Row],[Li]],HorasTabla[[#This Row],[Ls]])</f>
+        <v>6</v>
+      </c>
+      <c r="Q24" s="23">
+        <f>COUNTIFS(HorasDatos,"&gt;="&amp;HorasTabla[[#This Row],[Li]],HorasDatos,"&lt;"&amp;HorasTabla[[#This Row],[Ls]])</f>
+        <v>17</v>
+      </c>
+      <c r="R24" s="23">
+        <f>SUM(INDEX(HorasTabla[Fab],1):HorasTabla[[#This Row],[Fab]])</f>
+        <v>38</v>
+      </c>
+      <c r="S24" s="23">
+        <f>HorasTabla[[#This Row],[Fab]]/COUNT(HorasDatos)</f>
+        <v>0.34</v>
+      </c>
+      <c r="T24" s="23">
+        <f>HorasTabla[[#This Row],[Fre]]*100</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="24">
+        <v>5</v>
+      </c>
+      <c r="C25" s="24">
+        <v>10</v>
+      </c>
+      <c r="D25" s="24">
+        <v>2</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0</v>
+      </c>
+      <c r="F25" s="24">
+        <v>4</v>
+      </c>
+      <c r="G25" s="24">
+        <v>5</v>
+      </c>
+      <c r="H25" s="24">
+        <v>15</v>
+      </c>
+      <c r="I25" s="24">
+        <v>5</v>
+      </c>
+      <c r="J25" s="24">
+        <v>15</v>
+      </c>
+      <c r="K25" s="24">
+        <v>1</v>
+      </c>
+      <c r="M25" s="23" cm="1">
+        <f t="array" ref="M25">ROW(3:3)</f>
+        <v>3</v>
+      </c>
+      <c r="N25" s="23" cm="1">
+        <f t="array" ref="N25">IF(HorasTabla[[#This Row],[Interval]]=1,HorasMinimo,INDEX(HorasTabla[Ls],HorasTabla[[#This Row],[Interval]]-1))</f>
+        <v>8</v>
+      </c>
+      <c r="O25" s="26">
+        <f>HorasTabla[[#This Row],[Li]]+HorasAmplitud</f>
+        <v>12</v>
+      </c>
+      <c r="P25" s="23">
+        <f>AVERAGE(HorasTabla[[#This Row],[Li]],HorasTabla[[#This Row],[Ls]])</f>
+        <v>10</v>
+      </c>
+      <c r="Q25" s="23">
+        <f>COUNTIFS(HorasDatos,"&gt;="&amp;HorasTabla[[#This Row],[Li]],HorasDatos,"&lt;"&amp;HorasTabla[[#This Row],[Ls]])</f>
+        <v>5</v>
+      </c>
+      <c r="R25" s="23">
+        <f>SUM(INDEX(HorasTabla[Fab],1):HorasTabla[[#This Row],[Fab]])</f>
+        <v>43</v>
+      </c>
+      <c r="S25" s="23">
+        <f>HorasTabla[[#This Row],[Fab]]/COUNT(HorasDatos)</f>
+        <v>0.1</v>
+      </c>
+      <c r="T25" s="23">
+        <f>HorasTabla[[#This Row],[Fre]]*100</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="24">
+        <v>7</v>
+      </c>
+      <c r="C26" s="24">
+        <v>3</v>
+      </c>
+      <c r="D26" s="24">
+        <v>20</v>
+      </c>
+      <c r="E26" s="24">
+        <v>6</v>
+      </c>
+      <c r="F26" s="24">
+        <v>2</v>
+      </c>
+      <c r="G26" s="24">
+        <v>22</v>
+      </c>
+      <c r="H26" s="24">
+        <v>3</v>
+      </c>
+      <c r="I26" s="24">
+        <v>25</v>
+      </c>
+      <c r="J26" s="24">
+        <v>0</v>
+      </c>
+      <c r="K26" s="24">
+        <v>2</v>
+      </c>
+      <c r="M26" s="23" cm="1">
+        <f t="array" ref="M26">ROW(4:4)</f>
+        <v>4</v>
+      </c>
+      <c r="N26" s="23" cm="1">
+        <f t="array" ref="N26">IF(HorasTabla[[#This Row],[Interval]]=1,HorasMinimo,INDEX(HorasTabla[Ls],HorasTabla[[#This Row],[Interval]]-1))</f>
+        <v>12</v>
+      </c>
+      <c r="O26" s="26">
+        <f>HorasTabla[[#This Row],[Li]]+HorasAmplitud</f>
+        <v>16</v>
+      </c>
+      <c r="P26" s="23">
+        <f>AVERAGE(HorasTabla[[#This Row],[Li]],HorasTabla[[#This Row],[Ls]])</f>
+        <v>14</v>
+      </c>
+      <c r="Q26" s="23">
+        <f>COUNTIFS(HorasDatos,"&gt;="&amp;HorasTabla[[#This Row],[Li]],HorasDatos,"&lt;"&amp;HorasTabla[[#This Row],[Ls]])</f>
+        <v>3</v>
+      </c>
+      <c r="R26" s="23">
+        <f>SUM(INDEX(HorasTabla[Fab],1):HorasTabla[[#This Row],[Fab]])</f>
+        <v>46</v>
+      </c>
+      <c r="S26" s="23">
+        <f>HorasTabla[[#This Row],[Fab]]/COUNT(HorasDatos)</f>
+        <v>0.06</v>
+      </c>
+      <c r="T26" s="23">
+        <f>HorasTabla[[#This Row],[Fre]]*100</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="24">
+        <v>4</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0</v>
+      </c>
+      <c r="D27" s="24">
+        <v>17</v>
+      </c>
+      <c r="E27" s="24">
+        <v>1</v>
+      </c>
+      <c r="F27" s="24">
+        <v>10</v>
+      </c>
+      <c r="G27" s="24">
+        <v>5</v>
+      </c>
+      <c r="H27" s="24">
+        <v>6</v>
+      </c>
+      <c r="I27" s="24">
+        <v>10</v>
+      </c>
+      <c r="J27" s="24">
+        <v>3</v>
+      </c>
+      <c r="K27" s="24">
+        <v>6</v>
+      </c>
+      <c r="M27" s="23" cm="1">
+        <f t="array" ref="M27">ROW(5:5)</f>
+        <v>5</v>
+      </c>
+      <c r="N27" s="23" cm="1">
+        <f t="array" ref="N27">IF(HorasTabla[[#This Row],[Interval]]=1,HorasMinimo,INDEX(HorasTabla[Ls],HorasTabla[[#This Row],[Interval]]-1))</f>
+        <v>16</v>
+      </c>
+      <c r="O27" s="26">
+        <f>HorasTabla[[#This Row],[Li]]+HorasAmplitud</f>
+        <v>20</v>
+      </c>
+      <c r="P27" s="23">
+        <f>AVERAGE(HorasTabla[[#This Row],[Li]],HorasTabla[[#This Row],[Ls]])</f>
+        <v>18</v>
+      </c>
+      <c r="Q27" s="23">
+        <f>COUNTIFS(HorasDatos,"&gt;="&amp;HorasTabla[[#This Row],[Li]],HorasDatos,"&lt;"&amp;HorasTabla[[#This Row],[Ls]])</f>
+        <v>1</v>
+      </c>
+      <c r="R27" s="23">
+        <f>SUM(INDEX(HorasTabla[Fab],1):HorasTabla[[#This Row],[Fab]])</f>
+        <v>47</v>
+      </c>
+      <c r="S27" s="23">
+        <f>HorasTabla[[#This Row],[Fab]]/COUNT(HorasDatos)</f>
+        <v>0.02</v>
+      </c>
+      <c r="T27" s="23">
+        <f>HorasTabla[[#This Row],[Fre]]*100</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M28" s="23" cm="1">
+        <f t="array" ref="M28">ROW(6:6)</f>
+        <v>6</v>
+      </c>
+      <c r="N28" s="23" cm="1">
+        <f t="array" ref="N28">IF(HorasTabla[[#This Row],[Interval]]=1,HorasMinimo,INDEX(HorasTabla[Ls],HorasTabla[[#This Row],[Interval]]-1))</f>
+        <v>20</v>
+      </c>
+      <c r="O28" s="26">
+        <f>HorasTabla[[#This Row],[Li]]+HorasAmplitud</f>
+        <v>24</v>
+      </c>
+      <c r="P28" s="23">
+        <f>AVERAGE(HorasTabla[[#This Row],[Li]],HorasTabla[[#This Row],[Ls]])</f>
+        <v>22</v>
+      </c>
+      <c r="Q28" s="23">
+        <f>COUNTIFS(HorasDatos,"&gt;="&amp;HorasTabla[[#This Row],[Li]],HorasDatos,"&lt;"&amp;HorasTabla[[#This Row],[Ls]])</f>
+        <v>2</v>
+      </c>
+      <c r="R28" s="23">
+        <f>SUM(INDEX(HorasTabla[Fab],1):HorasTabla[[#This Row],[Fab]])</f>
+        <v>49</v>
+      </c>
+      <c r="S28" s="23">
+        <f>HorasTabla[[#This Row],[Fab]]/COUNT(HorasDatos)</f>
+        <v>0.04</v>
+      </c>
+      <c r="T28" s="23">
+        <f>HorasTabla[[#This Row],[Fre]]*100</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="22">
+        <f>SMALL(HorasDatos,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="23" cm="1">
+        <f t="array" ref="M29">ROW(7:7)</f>
+        <v>7</v>
+      </c>
+      <c r="N29" s="23" cm="1">
+        <f t="array" ref="N29">IF(HorasTabla[[#This Row],[Interval]]=1,HorasMinimo,INDEX(HorasTabla[Ls],HorasTabla[[#This Row],[Interval]]-1))</f>
+        <v>24</v>
+      </c>
+      <c r="O29" s="26">
+        <f>HorasTabla[[#This Row],[Li]]+HorasAmplitud</f>
+        <v>28</v>
+      </c>
+      <c r="P29" s="23">
+        <f>AVERAGE(HorasTabla[[#This Row],[Li]],HorasTabla[[#This Row],[Ls]])</f>
+        <v>26</v>
+      </c>
+      <c r="Q29" s="23">
+        <f>COUNTIFS(HorasDatos,"&gt;="&amp;HorasTabla[[#This Row],[Li]],HorasDatos,"&lt;"&amp;HorasTabla[[#This Row],[Ls]])</f>
+        <v>1</v>
+      </c>
+      <c r="R29" s="23">
+        <f>SUM(INDEX(HorasTabla[Fab],1):HorasTabla[[#This Row],[Fab]])</f>
+        <v>50</v>
+      </c>
+      <c r="S29" s="23">
+        <f>HorasTabla[[#This Row],[Fab]]/COUNT(HorasDatos)</f>
+        <v>0.02</v>
+      </c>
+      <c r="T29" s="23">
+        <f>HorasTabla[[#This Row],[Fre]]*100</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="22">
+        <f>LARGE(HorasDatos,1)</f>
+        <v>25</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="23">
+        <f>SUBTOTAL(109,HorasTabla[Fab])</f>
+        <v>50</v>
+      </c>
+      <c r="S30" s="23">
+        <f>SUBTOTAL(109,HorasTabla[Fre])</f>
+        <v>1</v>
+      </c>
+      <c r="T30" s="23">
+        <f>SUBTOTAL(109,HorasTabla[Porcent])</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="22">
+        <f>HorasMaximo-HorasMinimo</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="23">
+        <f>1+3.322*LOG10(COUNT(HorasDatos))</f>
+        <v>6.6439783544042541</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="22">
+        <f>IF(ISODD(ROUND(B32,0)),ROUND(B32,0),ROUNDUP(B32,0))</f>
+        <v>7</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="23">
+        <f>D31/HorasIntervalo</f>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="22">
+        <f>ROUNDUP(B33,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="S33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="T33" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M34" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="22">
+        <f>HorasAmplitud*HorasIntervalo-HorasRango</f>
+        <v>3</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M36" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="N36" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M37" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="N37" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C38" s="16"/>
+      <c r="M38" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="N38" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M39" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271C4EB3-1E88-40A3-AA36-3AE208FD2E28}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>133693</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/P&E/Clase 02.xlsx
+++ b/P&E/Clase 02.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B3841F-3E3B-4042-AB4C-2C66F4540A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A34400-5012-46D0-80DB-C080012B71D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="15" windowWidth="7830" windowHeight="10920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12570" yWindow="0" windowWidth="7830" windowHeight="10920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video3" sheetId="1" r:id="rId1"/>
     <sheet name="Pareto" sheetId="2" r:id="rId2"/>
     <sheet name="Video5" sheetId="3" r:id="rId3"/>
     <sheet name="Video6" sheetId="4" r:id="rId4"/>
-    <sheet name="Apunte" sheetId="5" r:id="rId5"/>
+    <sheet name="GBarras" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="EdadesAmplitud">Video6!$D$13</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="84">
   <si>
     <t>Datos</t>
   </si>
@@ -313,6 +313,18 @@
   <si>
     <t>Porcent</t>
   </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>fab</t>
+  </si>
+  <si>
+    <t>fre</t>
+  </si>
+  <si>
+    <t>Días</t>
+  </si>
 </sst>
 </file>
 
@@ -490,11 +502,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -502,115 +514,12 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="48">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -702,26 +611,6 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -796,6 +685,135 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1883,6 +1901,1023 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gráfico</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de barras</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GBarras!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fab</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>GBarras!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GBarras!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D21F-4A6D-B1FA-6DCEA08FFA04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="527091552"/>
+        <c:axId val="527092208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="527091552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Edades</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527092208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="527092208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Personas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527091552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Días de ejercicio semanal de estudiantes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GBarras!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fab</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>GBarras!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GBarras!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A68A-4A5F-9F6C-7CCA32BD83CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="643309128"/>
+        <c:axId val="641626616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="643309128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Días</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="641626616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="641626616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Estudiantes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643309128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1923,7 +2958,1093 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2467,18 +4588,95 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE42490-A801-7AF4-8646-DBB7C8832946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05925EC8-A86B-B751-F003-3CE76A5296E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaEjercicio" displayName="TablaEjercicio" ref="A1:E8" totalsRowCount="1" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaEjercicio" displayName="TablaEjercicio" ref="A1:E8" totalsRowCount="1" headerRowDxfId="47">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
     <sortCondition descending="1" ref="B2"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Causa" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Frecuencia" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Frecuencia relativa porcentual" totalsRowFunction="sum" dataDxfId="44">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Frecuencia relativa porcentual" totalsRowFunction="sum" dataDxfId="46">
       <calculatedColumnFormula>ROUND(TablaEjercicio[[#This Row],[Frecuencia]]/TablaEjercicio[[#Totals],[Frecuencia]]*100,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frecuencia relativa porcentual acumulada" dataDxfId="43">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frecuencia relativa porcentual acumulada" dataDxfId="45">
       <calculatedColumnFormula>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{6967DDD7-2B34-4899-8D09-AEB99E7DDD02}" name="80-20"/>
@@ -2490,30 +4688,30 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60079D04-1883-4ABC-A664-71548EED8847}" name="Tabla2" displayName="Tabla2" ref="L13:S21" totalsRowCount="1">
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{0A53712E-2CE1-4D3E-835E-053851610F89}" name="Intervalo" dataDxfId="42">
+    <tableColumn id="8" xr3:uid="{0A53712E-2CE1-4D3E-835E-053851610F89}" name="Intervalo" dataDxfId="44">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{95B66EDA-4894-4D52-B862-AD79C4B55BA8}" name="Li" dataDxfId="41">
+    <tableColumn id="1" xr3:uid="{95B66EDA-4894-4D52-B862-AD79C4B55BA8}" name="Li" dataDxfId="43">
       <calculatedColumnFormula array="1">IF(Tabla2[[#This Row],[Intervalo]]=1,VelocidadMinima,INDEX(Tabla2[Ls],Tabla2[[#This Row],[Intervalo]]-1))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{DA0E75B8-9B26-4EEA-9DB3-F98B1F47E516}" name="Ls">
       <calculatedColumnFormula>Tabla2[[#This Row],[Li]]+VelocidadAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A442407E-9BF8-48AD-9F38-117CC71388A0}" name="X" dataDxfId="40">
+    <tableColumn id="3" xr3:uid="{A442407E-9BF8-48AD-9F38-117CC71388A0}" name="X" dataDxfId="42">
       <calculatedColumnFormula>AVERAGE(Tabla2[[#This Row],[Li]],Tabla2[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{559733AA-4545-40B3-B4E4-BA1C4A552CC9}" name="f" totalsRowFunction="custom" dataDxfId="39">
+    <tableColumn id="4" xr3:uid="{559733AA-4545-40B3-B4E4-BA1C4A552CC9}" name="f" totalsRowFunction="custom" dataDxfId="41">
       <calculatedColumnFormula>COUNTIFS(VelocidadDatos,"&gt;="&amp;Tabla2[[#This Row],[Li]],VelocidadDatos,"&lt;"&amp;Tabla2[[#This Row],[Ls]])</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[f])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9513426F-2D77-4DB7-9E3C-FDA866D3F828}" name="F2" dataDxfId="38">
+    <tableColumn id="5" xr3:uid="{9513426F-2D77-4DB7-9E3C-FDA866D3F828}" name="F2" dataDxfId="40">
       <calculatedColumnFormula>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{898808BA-7B1D-423A-AFC5-36F396340D6F}" name="fr" totalsRowFunction="custom" dataDxfId="37">
+    <tableColumn id="6" xr3:uid="{898808BA-7B1D-423A-AFC5-36F396340D6F}" name="fr" totalsRowFunction="custom" dataDxfId="39">
       <calculatedColumnFormula>Tabla2[[#This Row],[f]]/COUNT(VelocidadDatos)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[fr])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54A61169-26D4-40D1-AB37-CC7B3CFF951D}" name="%" totalsRowFunction="custom" dataDxfId="36">
+    <tableColumn id="7" xr3:uid="{54A61169-26D4-40D1-AB37-CC7B3CFF951D}" name="%" totalsRowFunction="custom" dataDxfId="38">
       <calculatedColumnFormula>Tabla2[[#This Row],[fr]]*100</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[%])</totalsRowFormula>
     </tableColumn>
@@ -2523,30 +4721,30 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8A81EB00-321D-4B93-AEDE-266C0C67A6F6}" name="Tabla3" displayName="Tabla3" ref="M1:T9" totalsRowCount="1" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8A81EB00-321D-4B93-AEDE-266C0C67A6F6}" name="Tabla3" displayName="Tabla3" ref="M1:T9" totalsRowCount="1" headerRowDxfId="37" dataDxfId="36">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{232F9B45-447A-40B7-B74F-4FE7C9BE2603}" name="Intervalo" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="1" xr3:uid="{232F9B45-447A-40B7-B74F-4FE7C9BE2603}" name="Intervalo" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4D118E85-6EA7-480C-B956-1F53E4957845}" name="Li" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="2" xr3:uid="{4D118E85-6EA7-480C-B956-1F53E4957845}" name="Li" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula array="1">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E5BED6C7-BE74-45ED-B47E-F7B1E786DAB0}" name="Ls" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="3" xr3:uid="{E5BED6C7-BE74-45ED-B47E-F7B1E786DAB0}" name="Ls" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>Tabla3[[#This Row],[Li]]+EdadesAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{415AB08A-FAE7-4C22-A0FA-9190C0850950}" name="x" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="4" xr3:uid="{415AB08A-FAE7-4C22-A0FA-9190C0850950}" name="x" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A44A0501-9BA4-4EC2-A260-0DB545AE4011}" name="Fab" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="5" xr3:uid="{A44A0501-9BA4-4EC2-A260-0DB545AE4011}" name="Fab" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{68C54D13-ACDA-4A0A-A339-895361D688D3}" name="Fac" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="6" xr3:uid="{68C54D13-ACDA-4A0A-A339-895361D688D3}" name="Fac" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D98175C7-3596-4076-B515-7BCE9AD30C3E}" name="Fre" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="7" xr3:uid="{D98175C7-3596-4076-B515-7BCE9AD30C3E}" name="Fre" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{910DF734-058E-4C54-9B3F-E2EECED6859C}" name="Porcentaje" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="8" xr3:uid="{910DF734-058E-4C54-9B3F-E2EECED6859C}" name="Porcentaje" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>Tabla3[[#This Row],[Fre]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2555,34 +4753,66 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F3DE1B53-3FA1-4535-97AB-C3383C2399DC}" name="HorasTabla" displayName="HorasTabla" ref="M22:T30" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F3DE1B53-3FA1-4535-97AB-C3383C2399DC}" name="HorasTabla" displayName="HorasTabla" ref="M22:T30" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7E0FFDAC-17B2-487B-90CE-01301CE9120F}" name="Interval" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="8">
+    <tableColumn id="1" xr3:uid="{7E0FFDAC-17B2-487B-90CE-01301CE9120F}" name="Interval" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A572D211-8943-48C3-94B5-77627F28FB47}" name="Li" dataDxfId="0" totalsRowDxfId="7">
+    <tableColumn id="2" xr3:uid="{A572D211-8943-48C3-94B5-77627F28FB47}" name="Li" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula array="1">IF(HorasTabla[[#This Row],[Interval]]=1,HorasMinimo,INDEX(HorasTabla[Ls],HorasTabla[[#This Row],[Interval]]-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5F43143E-70A3-4310-AAD3-C8718D116957}" name="Ls" dataDxfId="11" totalsRowDxfId="6">
+    <tableColumn id="3" xr3:uid="{5F43143E-70A3-4310-AAD3-C8718D116957}" name="Ls" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>HorasTabla[[#This Row],[Li]]+HorasAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EF0CC855-F805-473D-BE26-69CBF1656CCE}" name="x" dataDxfId="15" totalsRowDxfId="5">
+    <tableColumn id="4" xr3:uid="{EF0CC855-F805-473D-BE26-69CBF1656CCE}" name="x" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>AVERAGE(HorasTabla[[#This Row],[Li]],HorasTabla[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D7C90DA4-E208-4D98-99DD-4C3F92306AC0}" name="Fab" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="4">
+    <tableColumn id="5" xr3:uid="{D7C90DA4-E208-4D98-99DD-4C3F92306AC0}" name="Fab" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>COUNTIFS(HorasDatos,"&gt;="&amp;HorasTabla[[#This Row],[Li]],HorasDatos,"&lt;"&amp;HorasTabla[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7CD30B42-13D9-4431-BA16-F5DE4FDE8893}" name="Fac" dataDxfId="14" totalsRowDxfId="3">
+    <tableColumn id="6" xr3:uid="{7CD30B42-13D9-4431-BA16-F5DE4FDE8893}" name="Fac" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>SUM(INDEX(HorasTabla[Fab],1):HorasTabla[[#This Row],[Fab]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D6F72C58-6AB5-4E12-ACF1-8F5447E7AA37}" name="Fre" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="2">
+    <tableColumn id="7" xr3:uid="{D6F72C58-6AB5-4E12-ACF1-8F5447E7AA37}" name="Fre" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>HorasTabla[[#This Row],[Fab]]/COUNT(HorasDatos)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A11D84D-8745-4BB3-A4CC-9EB2D4633332}" name="Porcent" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="1">
+    <tableColumn id="8" xr3:uid="{6A11D84D-8745-4BB3-A4CC-9EB2D4633332}" name="Porcent" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>HorasTabla[[#This Row],[Fre]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C27CCEE1-A1A1-4AD2-A9A3-28BA8C94C765}" name="EdadesTabla" displayName="EdadesTabla" ref="A1:E8" totalsRowCount="1">
+  <autoFilter ref="A1:E7" xr:uid="{C27CCEE1-A1A1-4AD2-A9A3-28BA8C94C765}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A15EDEB4-4A28-4A3E-A82D-C4B2D439076F}" name="Edad" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{99A25B33-85B8-4325-8EBD-BAE8B7A93989}" name="fab" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{90CBD1DB-3918-46C0-95A8-48560759B6D5}" name="Fac"/>
+    <tableColumn id="4" xr3:uid="{C5BAABD4-C2D7-4413-93D3-491B2421D260}" name="fre" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{3E04E743-67C4-4E4A-8977-5A65F2C68F13}" name="%" totalsRowFunction="sum" dataDxfId="1">
+      <calculatedColumnFormula>EdadesTabla[[#This Row],[fre]]*100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{57FA1CFF-E90E-429B-BD2A-B641D0395C74}" name="EdadesTabla7" displayName="EdadesTabla7" ref="G1:K8" totalsRowCount="1">
+  <autoFilter ref="G1:K7" xr:uid="{57FA1CFF-E90E-429B-BD2A-B641D0395C74}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9C43A51B-ECF0-40A2-AF89-6AEB34BCEC6C}" name="Días" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{876A90DD-0C14-4779-A3FD-B77359066D18}" name="fab" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{C84660E0-B005-4A84-898C-DA400BC950AA}" name="Fac"/>
+    <tableColumn id="4" xr3:uid="{AADD1174-3044-45E1-9509-D9C09B92F316}" name="fre" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{059DF08B-3977-4BA9-8867-8CFF174F255C}" name="%" totalsRowFunction="sum" dataDxfId="0">
+      <calculatedColumnFormula>EdadesTabla7[[#This Row],[fre]]*100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2921,21 +5151,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="H1" s="28" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="H1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5303,26 +7533,26 @@
       <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
@@ -5905,25 +8135,288 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271C4EB3-1E88-40A3-AA36-3AE208FD2E28}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>133693</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>16423</v>
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <f>EdadesTabla[[#This Row],[fre]]*100</f>
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>0.24</v>
+      </c>
+      <c r="K2">
+        <f>EdadesTabla7[[#This Row],[fre]]*100</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>0.36</v>
+      </c>
+      <c r="E3">
+        <f>EdadesTabla[[#This Row],[fre]]*100</f>
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K3">
+        <f>EdadesTabla7[[#This Row],[fre]]*100</f>
+        <v>28.000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>0.26</v>
+      </c>
+      <c r="E4">
+        <f>EdadesTabla[[#This Row],[fre]]*100</f>
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>0.24</v>
+      </c>
+      <c r="K4">
+        <f>EdadesTabla7[[#This Row],[fre]]*100</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>0.13</v>
+      </c>
+      <c r="E5">
+        <f>EdadesTabla[[#This Row],[fre]]*100</f>
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>23</v>
+      </c>
+      <c r="J5">
+        <v>0.16</v>
+      </c>
+      <c r="K5">
+        <f>EdadesTabla7[[#This Row],[fre]]*100</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>EdadesTabla[[#This Row],[fre]]*100</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>0.04</v>
+      </c>
+      <c r="K6">
+        <f>EdadesTabla7[[#This Row],[fre]]*100</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0.03</v>
+      </c>
+      <c r="E7">
+        <f>EdadesTabla[[#This Row],[fre]]*100</f>
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>0.04</v>
+      </c>
+      <c r="K7">
+        <f>EdadesTabla7[[#This Row],[fre]]*100</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <f>SUBTOTAL(109,EdadesTabla[fab])</f>
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <f>SUBTOTAL(109,EdadesTabla[fre])</f>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="E8">
+        <f>SUBTOTAL(109,EdadesTabla[%])</f>
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <f>SUBTOTAL(109,EdadesTabla7[fab])</f>
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <f>SUBTOTAL(109,EdadesTabla7[fre])</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>SUBTOTAL(109,EdadesTabla7[%])</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/P&E/Clase 02.xlsx
+++ b/P&E/Clase 02.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A34400-5012-46D0-80DB-C080012B71D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F414F33A-290C-445F-8E3B-865CB48CFF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="0" windowWidth="7830" windowHeight="10920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12570" yWindow="0" windowWidth="7830" windowHeight="10920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video3" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,23 @@
     <sheet name="Video5" sheetId="3" r:id="rId3"/>
     <sheet name="Video6" sheetId="4" r:id="rId4"/>
     <sheet name="GBarras" sheetId="5" r:id="rId5"/>
+    <sheet name="Histograma" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Histograma!$I$2:$I$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Histograma!$I$2:$I$8</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Histograma!$K$2:$K$10</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Histograma!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Histograma!$D$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Histograma!$D$2:$D$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Histograma!$K$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Histograma!$K$2:$K$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Histograma!$K$2:$K$8</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Histograma!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Histograma!$C$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Histograma!$C$2:$C$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Histograma!$I$2:$I$10</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Histograma!$K$1</definedName>
     <definedName name="EdadesAmplitud">Video6!$D$13</definedName>
     <definedName name="EdadesDatos">Video6!$B$2:$K$7</definedName>
     <definedName name="EdadesIntervalo">Video6!$D$12</definedName>
@@ -72,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="101">
   <si>
     <t>Datos</t>
   </si>
@@ -325,6 +340,57 @@
   <si>
     <t>Días</t>
   </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>33-36</t>
+  </si>
+  <si>
+    <t>36-39</t>
+  </si>
+  <si>
+    <t>39-42</t>
+  </si>
+  <si>
+    <t>42-45</t>
+  </si>
+  <si>
+    <t>45-48</t>
+  </si>
+  <si>
+    <t>48-51</t>
+  </si>
+  <si>
+    <t>51-54</t>
+  </si>
+  <si>
+    <t>Tabla del peso en kilogramos de 40 estudiantes</t>
+  </si>
+  <si>
+    <t>Tabla de edades de 60 personas que ingresaron a un centro comercial</t>
+  </si>
+  <si>
+    <t>3-13</t>
+  </si>
+  <si>
+    <t>13-23</t>
+  </si>
+  <si>
+    <t>23-33</t>
+  </si>
+  <si>
+    <t>33-43</t>
+  </si>
+  <si>
+    <t>43-53</t>
+  </si>
+  <si>
+    <t>53-63</t>
+  </si>
+  <si>
+    <t>63-73</t>
+  </si>
 </sst>
 </file>
 
@@ -443,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -509,12 +575,488 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="78">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2918,6 +3460,264 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Gráfico del peso en kilogramos de 40 estudiantes</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Gráfico del peso en kilogramos de 40 estudiantes</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{89584255-5F1E-4EB5-9F7B-9B5CACFA1BA2}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>f</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Kilogramos</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Kilogramos</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Estudiantes</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Estudiantes</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Gráfico de edades de 60 personas que ingresaron a un centro comercial</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Gráfico de edades de 60 personas que ingresaron a un centro comercial</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{38C7C52D-5630-4EFF-981F-C5B8508A3F53}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>f</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Edades</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Edades</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Visitantes</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Visitantes</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3038,6 +3838,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4543,6 +5423,1022 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4665,18 +6561,179 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Gráfico 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946FFF05-8ACC-C0EC-F1EC-F827FCB791B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="76201" y="1962149"/>
+              <a:ext cx="3952874" cy="2724151"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Gráfico 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8B253A-049E-69B7-85EB-9463D28157FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4657724" y="2214562"/>
+              <a:ext cx="4600575" cy="3195638"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaEjercicio" displayName="TablaEjercicio" ref="A1:E8" totalsRowCount="1" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaEjercicio" displayName="TablaEjercicio" ref="A1:E8" totalsRowCount="1" headerRowDxfId="77">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
     <sortCondition descending="1" ref="B2"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Causa" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Frecuencia" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Frecuencia relativa porcentual" totalsRowFunction="sum" dataDxfId="46">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Frecuencia relativa porcentual" totalsRowFunction="sum" dataDxfId="76">
       <calculatedColumnFormula>ROUND(TablaEjercicio[[#This Row],[Frecuencia]]/TablaEjercicio[[#Totals],[Frecuencia]]*100,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frecuencia relativa porcentual acumulada" dataDxfId="45">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frecuencia relativa porcentual acumulada" dataDxfId="75">
       <calculatedColumnFormula>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{6967DDD7-2B34-4899-8D09-AEB99E7DDD02}" name="80-20"/>
@@ -4688,30 +6745,30 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60079D04-1883-4ABC-A664-71548EED8847}" name="Tabla2" displayName="Tabla2" ref="L13:S21" totalsRowCount="1">
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{0A53712E-2CE1-4D3E-835E-053851610F89}" name="Intervalo" dataDxfId="44">
+    <tableColumn id="8" xr3:uid="{0A53712E-2CE1-4D3E-835E-053851610F89}" name="Intervalo" dataDxfId="74">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{95B66EDA-4894-4D52-B862-AD79C4B55BA8}" name="Li" dataDxfId="43">
+    <tableColumn id="1" xr3:uid="{95B66EDA-4894-4D52-B862-AD79C4B55BA8}" name="Li" dataDxfId="73">
       <calculatedColumnFormula array="1">IF(Tabla2[[#This Row],[Intervalo]]=1,VelocidadMinima,INDEX(Tabla2[Ls],Tabla2[[#This Row],[Intervalo]]-1))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{DA0E75B8-9B26-4EEA-9DB3-F98B1F47E516}" name="Ls">
       <calculatedColumnFormula>Tabla2[[#This Row],[Li]]+VelocidadAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A442407E-9BF8-48AD-9F38-117CC71388A0}" name="X" dataDxfId="42">
+    <tableColumn id="3" xr3:uid="{A442407E-9BF8-48AD-9F38-117CC71388A0}" name="X" dataDxfId="72">
       <calculatedColumnFormula>AVERAGE(Tabla2[[#This Row],[Li]],Tabla2[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{559733AA-4545-40B3-B4E4-BA1C4A552CC9}" name="f" totalsRowFunction="custom" dataDxfId="41">
+    <tableColumn id="4" xr3:uid="{559733AA-4545-40B3-B4E4-BA1C4A552CC9}" name="f" totalsRowFunction="custom" dataDxfId="71">
       <calculatedColumnFormula>COUNTIFS(VelocidadDatos,"&gt;="&amp;Tabla2[[#This Row],[Li]],VelocidadDatos,"&lt;"&amp;Tabla2[[#This Row],[Ls]])</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[f])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9513426F-2D77-4DB7-9E3C-FDA866D3F828}" name="F2" dataDxfId="40">
+    <tableColumn id="5" xr3:uid="{9513426F-2D77-4DB7-9E3C-FDA866D3F828}" name="F2" dataDxfId="70">
       <calculatedColumnFormula>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{898808BA-7B1D-423A-AFC5-36F396340D6F}" name="fr" totalsRowFunction="custom" dataDxfId="39">
+    <tableColumn id="6" xr3:uid="{898808BA-7B1D-423A-AFC5-36F396340D6F}" name="fr" totalsRowFunction="custom" dataDxfId="69">
       <calculatedColumnFormula>Tabla2[[#This Row],[f]]/COUNT(VelocidadDatos)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[fr])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54A61169-26D4-40D1-AB37-CC7B3CFF951D}" name="%" totalsRowFunction="custom" dataDxfId="38">
+    <tableColumn id="7" xr3:uid="{54A61169-26D4-40D1-AB37-CC7B3CFF951D}" name="%" totalsRowFunction="custom" dataDxfId="68">
       <calculatedColumnFormula>Tabla2[[#This Row],[fr]]*100</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[%])</totalsRowFormula>
     </tableColumn>
@@ -4721,30 +6778,30 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8A81EB00-321D-4B93-AEDE-266C0C67A6F6}" name="Tabla3" displayName="Tabla3" ref="M1:T9" totalsRowCount="1" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8A81EB00-321D-4B93-AEDE-266C0C67A6F6}" name="Tabla3" displayName="Tabla3" ref="M1:T9" totalsRowCount="1" headerRowDxfId="67" dataDxfId="66">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{232F9B45-447A-40B7-B74F-4FE7C9BE2603}" name="Intervalo" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="1" xr3:uid="{232F9B45-447A-40B7-B74F-4FE7C9BE2603}" name="Intervalo" totalsRowLabel="Total" dataDxfId="65" totalsRowDxfId="64">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4D118E85-6EA7-480C-B956-1F53E4957845}" name="Li" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="2" xr3:uid="{4D118E85-6EA7-480C-B956-1F53E4957845}" name="Li" dataDxfId="63" totalsRowDxfId="62">
       <calculatedColumnFormula array="1">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E5BED6C7-BE74-45ED-B47E-F7B1E786DAB0}" name="Ls" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="3" xr3:uid="{E5BED6C7-BE74-45ED-B47E-F7B1E786DAB0}" name="Ls" dataDxfId="61" totalsRowDxfId="60">
       <calculatedColumnFormula>Tabla3[[#This Row],[Li]]+EdadesAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{415AB08A-FAE7-4C22-A0FA-9190C0850950}" name="x" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="4" xr3:uid="{415AB08A-FAE7-4C22-A0FA-9190C0850950}" name="x" dataDxfId="59" totalsRowDxfId="58">
       <calculatedColumnFormula>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A44A0501-9BA4-4EC2-A260-0DB545AE4011}" name="Fab" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="5" xr3:uid="{A44A0501-9BA4-4EC2-A260-0DB545AE4011}" name="Fab" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{68C54D13-ACDA-4A0A-A339-895361D688D3}" name="Fac" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="6" xr3:uid="{68C54D13-ACDA-4A0A-A339-895361D688D3}" name="Fac" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D98175C7-3596-4076-B515-7BCE9AD30C3E}" name="Fre" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="7" xr3:uid="{D98175C7-3596-4076-B515-7BCE9AD30C3E}" name="Fre" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{910DF734-058E-4C54-9B3F-E2EECED6859C}" name="Porcentaje" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="8" xr3:uid="{910DF734-058E-4C54-9B3F-E2EECED6859C}" name="Porcentaje" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>Tabla3[[#This Row],[Fre]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4753,30 +6810,30 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F3DE1B53-3FA1-4535-97AB-C3383C2399DC}" name="HorasTabla" displayName="HorasTabla" ref="M22:T30" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F3DE1B53-3FA1-4535-97AB-C3383C2399DC}" name="HorasTabla" displayName="HorasTabla" ref="M22:T30" totalsRowCount="1" headerRowDxfId="49" dataDxfId="48">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7E0FFDAC-17B2-487B-90CE-01301CE9120F}" name="Interval" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{7E0FFDAC-17B2-487B-90CE-01301CE9120F}" name="Interval" totalsRowLabel="Total" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A572D211-8943-48C3-94B5-77627F28FB47}" name="Li" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="2" xr3:uid="{A572D211-8943-48C3-94B5-77627F28FB47}" name="Li" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula array="1">IF(HorasTabla[[#This Row],[Interval]]=1,HorasMinimo,INDEX(HorasTabla[Ls],HorasTabla[[#This Row],[Interval]]-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5F43143E-70A3-4310-AAD3-C8718D116957}" name="Ls" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="3" xr3:uid="{5F43143E-70A3-4310-AAD3-C8718D116957}" name="Ls" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>HorasTabla[[#This Row],[Li]]+HorasAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EF0CC855-F805-473D-BE26-69CBF1656CCE}" name="x" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="4" xr3:uid="{EF0CC855-F805-473D-BE26-69CBF1656CCE}" name="x" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>AVERAGE(HorasTabla[[#This Row],[Li]],HorasTabla[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D7C90DA4-E208-4D98-99DD-4C3F92306AC0}" name="Fab" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="5" xr3:uid="{D7C90DA4-E208-4D98-99DD-4C3F92306AC0}" name="Fab" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>COUNTIFS(HorasDatos,"&gt;="&amp;HorasTabla[[#This Row],[Li]],HorasDatos,"&lt;"&amp;HorasTabla[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7CD30B42-13D9-4431-BA16-F5DE4FDE8893}" name="Fac" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="6" xr3:uid="{7CD30B42-13D9-4431-BA16-F5DE4FDE8893}" name="Fac" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>SUM(INDEX(HorasTabla[Fab],1):HorasTabla[[#This Row],[Fab]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D6F72C58-6AB5-4E12-ACF1-8F5447E7AA37}" name="Fre" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="7" xr3:uid="{D6F72C58-6AB5-4E12-ACF1-8F5447E7AA37}" name="Fre" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>HorasTabla[[#This Row],[Fab]]/COUNT(HorasDatos)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A11D84D-8745-4BB3-A4CC-9EB2D4633332}" name="Porcent" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="8" xr3:uid="{6A11D84D-8745-4BB3-A4CC-9EB2D4633332}" name="Porcent" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>HorasTabla[[#This Row],[Fre]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4792,7 +6849,7 @@
     <tableColumn id="2" xr3:uid="{99A25B33-85B8-4325-8EBD-BAE8B7A93989}" name="fab" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{90CBD1DB-3918-46C0-95A8-48560759B6D5}" name="Fac"/>
     <tableColumn id="4" xr3:uid="{C5BAABD4-C2D7-4413-93D3-491B2421D260}" name="fre" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{3E04E743-67C4-4E4A-8977-5A65F2C68F13}" name="%" totalsRowFunction="sum" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{3E04E743-67C4-4E4A-8977-5A65F2C68F13}" name="%" totalsRowFunction="sum" dataDxfId="31">
       <calculatedColumnFormula>EdadesTabla[[#This Row],[fre]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4808,11 +6865,51 @@
     <tableColumn id="2" xr3:uid="{876A90DD-0C14-4779-A3FD-B77359066D18}" name="fab" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{C84660E0-B005-4A84-898C-DA400BC950AA}" name="Fac"/>
     <tableColumn id="4" xr3:uid="{AADD1174-3044-45E1-9509-D9C09B92F316}" name="fre" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{059DF08B-3977-4BA9-8867-8CFF174F255C}" name="%" totalsRowFunction="sum" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{059DF08B-3977-4BA9-8867-8CFF174F255C}" name="%" totalsRowFunction="sum" dataDxfId="30">
       <calculatedColumnFormula>EdadesTabla7[[#This Row],[fre]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8629281-7C0C-4B7C-A02E-13A553704674}" name="Tabla7" displayName="Tabla7" ref="A1:F9" totalsRowCount="1" headerRowDxfId="23" dataDxfId="21" totalsRowDxfId="22">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{BE86102C-2EF1-4B15-9517-152982D38530}" name="Peso" totalsRowLabel="Total" dataDxfId="29" totalsRowDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{BFDB7706-FF93-4D45-8BD2-E4D05917E6E5}" name="x" dataDxfId="28" totalsRowDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{549AEC2D-881B-4C84-9D83-D78CD94F106F}" name="f" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{294955CF-84B2-4F2A-A869-2F48DF58FB93}" name="Fac" dataDxfId="26" totalsRowDxfId="17">
+      <calculatedColumnFormula>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{3DBE6DBB-20A7-4C1D-9532-544BD6CC5EA6}" name="fr" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="16">
+      <calculatedColumnFormula>Tabla7[[#This Row],[f]]/Tabla7[[#Totals],[f]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{89276538-8C50-4975-B4F1-377877667554}" name="%" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="15">
+      <calculatedColumnFormula>Tabla7[[#This Row],[fr]]*100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E0C5C18F-89DA-4B86-8F8B-E0F8AAD442FB}" name="Tabla79" displayName="Tabla79" ref="I1:N9" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{FFB1FDF1-9B47-4582-A729-82B1F9484E84}" name="Edad" totalsRowLabel="Total" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8087F899-024F-4CF7-970F-389C51A41461}" name="x" dataDxfId="7" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00CA0D8D-66C7-440D-B2B6-34C9A7E8C573}" name="f" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{A560F1DC-BD84-4704-8CF7-5BE995D34B4B}" name="Fac" dataDxfId="9" totalsRowDxfId="2">
+      <calculatedColumnFormula>SUM(INDEX(Tabla79[f],1):Tabla79[[#This Row],[f]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B675E33D-10B1-475E-8B92-933C90D17699}" name="fr" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="1">
+      <calculatedColumnFormula>Tabla79[[#This Row],[f]]/Tabla79[[#Totals],[f]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{1D684A39-A130-4CCA-A76F-A1767162661E}" name="%" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="0">
+      <calculatedColumnFormula>Tabla79[[#This Row],[fr]]*100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -8137,7 +10234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271C4EB3-1E88-40A3-AA36-3AE208FD2E28}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+    <sheetView topLeftCell="F2" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -8419,4 +10516,430 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EAA00E-FA50-4C4C-830E-B536382A57E9}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I8" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="7.7109375" customWidth="1"/>
+    <col min="9" max="14" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="23">
+        <v>34.5</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23">
+        <f>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="23">
+        <f>Tabla7[[#This Row],[f]]/Tabla7[[#Totals],[f]]</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F2" s="23">
+        <f>Tabla7[[#This Row],[fr]]*100</f>
+        <v>2.5</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="23">
+        <v>8</v>
+      </c>
+      <c r="K2" s="23">
+        <v>5</v>
+      </c>
+      <c r="L2" s="23">
+        <f>SUM(INDEX(Tabla79[f],1):Tabla79[[#This Row],[f]])</f>
+        <v>5</v>
+      </c>
+      <c r="M2" s="23">
+        <f>Tabla79[[#This Row],[f]]/Tabla79[[#Totals],[f]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N2" s="23">
+        <f>Tabla79[[#This Row],[fr]]*100</f>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="23">
+        <v>37.5</v>
+      </c>
+      <c r="C3" s="23">
+        <v>9</v>
+      </c>
+      <c r="D3" s="23">
+        <f>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</f>
+        <v>10</v>
+      </c>
+      <c r="E3" s="23">
+        <f>Tabla7[[#This Row],[f]]/Tabla7[[#Totals],[f]]</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F3" s="23">
+        <f>Tabla7[[#This Row],[fr]]*100</f>
+        <v>22.5</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="23">
+        <v>18</v>
+      </c>
+      <c r="K3" s="23">
+        <v>19</v>
+      </c>
+      <c r="L3" s="23">
+        <f>SUM(INDEX(Tabla79[f],1):Tabla79[[#This Row],[f]])</f>
+        <v>24</v>
+      </c>
+      <c r="M3" s="23">
+        <f>Tabla79[[#This Row],[f]]/Tabla79[[#Totals],[f]]</f>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="N3" s="23">
+        <f>Tabla79[[#This Row],[fr]]*100</f>
+        <v>31.666666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="23">
+        <v>40.5</v>
+      </c>
+      <c r="C4" s="23">
+        <v>14</v>
+      </c>
+      <c r="D4" s="23">
+        <f>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</f>
+        <v>24</v>
+      </c>
+      <c r="E4" s="23">
+        <f>Tabla7[[#This Row],[f]]/Tabla7[[#Totals],[f]]</f>
+        <v>0.35</v>
+      </c>
+      <c r="F4" s="23">
+        <f>Tabla7[[#This Row],[fr]]*100</f>
+        <v>35</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="23">
+        <v>28</v>
+      </c>
+      <c r="K4" s="23">
+        <v>16</v>
+      </c>
+      <c r="L4" s="23">
+        <f>SUM(INDEX(Tabla79[f],1):Tabla79[[#This Row],[f]])</f>
+        <v>40</v>
+      </c>
+      <c r="M4" s="23">
+        <f>Tabla79[[#This Row],[f]]/Tabla79[[#Totals],[f]]</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="N4" s="23">
+        <f>Tabla79[[#This Row],[fr]]*100</f>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="23">
+        <v>43.5</v>
+      </c>
+      <c r="C5" s="23">
+        <v>7</v>
+      </c>
+      <c r="D5" s="23">
+        <f>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</f>
+        <v>31</v>
+      </c>
+      <c r="E5" s="23">
+        <f>Tabla7[[#This Row],[f]]/Tabla7[[#Totals],[f]]</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F5" s="23">
+        <f>Tabla7[[#This Row],[fr]]*100</f>
+        <v>17.5</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="23">
+        <v>38</v>
+      </c>
+      <c r="K5" s="23">
+        <v>8</v>
+      </c>
+      <c r="L5" s="23">
+        <f>SUM(INDEX(Tabla79[f],1):Tabla79[[#This Row],[f]])</f>
+        <v>48</v>
+      </c>
+      <c r="M5" s="23">
+        <f>Tabla79[[#This Row],[f]]/Tabla79[[#Totals],[f]]</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="N5" s="23">
+        <f>Tabla79[[#This Row],[fr]]*100</f>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="23">
+        <v>46.5</v>
+      </c>
+      <c r="C6" s="23">
+        <v>4</v>
+      </c>
+      <c r="D6" s="23">
+        <f>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</f>
+        <v>35</v>
+      </c>
+      <c r="E6" s="23">
+        <f>Tabla7[[#This Row],[f]]/Tabla7[[#Totals],[f]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="23">
+        <f>Tabla7[[#This Row],[fr]]*100</f>
+        <v>10</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="23">
+        <v>48</v>
+      </c>
+      <c r="K6" s="23">
+        <v>6</v>
+      </c>
+      <c r="L6" s="23">
+        <f>SUM(INDEX(Tabla79[f],1):Tabla79[[#This Row],[f]])</f>
+        <v>54</v>
+      </c>
+      <c r="M6" s="23">
+        <f>Tabla79[[#This Row],[f]]/Tabla79[[#Totals],[f]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="23">
+        <f>Tabla79[[#This Row],[fr]]*100</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="23">
+        <v>49.5</v>
+      </c>
+      <c r="C7" s="23">
+        <v>3</v>
+      </c>
+      <c r="D7" s="23">
+        <f>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</f>
+        <v>38</v>
+      </c>
+      <c r="E7" s="23">
+        <f>Tabla7[[#This Row],[f]]/Tabla7[[#Totals],[f]]</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F7" s="23">
+        <f>Tabla7[[#This Row],[fr]]*100</f>
+        <v>7.5</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="23">
+        <v>58</v>
+      </c>
+      <c r="K7" s="23">
+        <v>4</v>
+      </c>
+      <c r="L7" s="23">
+        <f>SUM(INDEX(Tabla79[f],1):Tabla79[[#This Row],[f]])</f>
+        <v>58</v>
+      </c>
+      <c r="M7" s="23">
+        <f>Tabla79[[#This Row],[f]]/Tabla79[[#Totals],[f]]</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="N7" s="23">
+        <f>Tabla79[[#This Row],[fr]]*100</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="23">
+        <v>52.5</v>
+      </c>
+      <c r="C8" s="23">
+        <v>2</v>
+      </c>
+      <c r="D8" s="23">
+        <f>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</f>
+        <v>40</v>
+      </c>
+      <c r="E8" s="23">
+        <f>Tabla7[[#This Row],[f]]/Tabla7[[#Totals],[f]]</f>
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="23">
+        <f>Tabla7[[#This Row],[fr]]*100</f>
+        <v>5</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="23">
+        <v>68</v>
+      </c>
+      <c r="K8" s="23">
+        <v>2</v>
+      </c>
+      <c r="L8" s="23">
+        <f>SUM(INDEX(Tabla79[f],1):Tabla79[[#This Row],[f]])</f>
+        <v>60</v>
+      </c>
+      <c r="M8" s="23">
+        <f>Tabla79[[#This Row],[f]]/Tabla79[[#Totals],[f]]</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="N8" s="23">
+        <f>Tabla79[[#This Row],[fr]]*100</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23">
+        <f>SUBTOTAL(109,Tabla7[f])</f>
+        <v>40</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23">
+        <f>SUBTOTAL(109,Tabla7[fr])</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F9" s="23">
+        <f>SUBTOTAL(109,Tabla7[%])</f>
+        <v>100</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23">
+        <f>SUBTOTAL(109,Tabla79[f])</f>
+        <v>60</v>
+      </c>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23">
+        <f>SUBTOTAL(109,Tabla79[fr])</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="N9" s="23">
+        <f>SUBTOTAL(109,Tabla79[%])</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/P&E/Clase 02.xlsx
+++ b/P&E/Clase 02.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F414F33A-290C-445F-8E3B-865CB48CFF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615EA74E-AF74-4BC7-B0A4-0F45DCAF3AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="0" windowWidth="7830" windowHeight="10920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video3" sheetId="1" r:id="rId1"/>
@@ -14,22 +14,15 @@
     <sheet name="Video6" sheetId="4" r:id="rId4"/>
     <sheet name="GBarras" sheetId="5" r:id="rId5"/>
     <sheet name="Histograma" sheetId="6" r:id="rId6"/>
+    <sheet name="Bastones" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Histograma!$I$2:$I$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Histograma!$I$2:$I$8</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Histograma!$K$2:$K$10</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Histograma!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Histograma!$D$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Histograma!$D$2:$D$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Histograma!$K$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Histograma!$K$2:$K$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Histograma!$K$2:$K$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Histograma!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Histograma!$C$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Histograma!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Histograma!$I$2:$I$10</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Histograma!$K$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Histograma!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Histograma!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Histograma!$C$2:$C$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Histograma!$I$2:$I$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Histograma!$K$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Histograma!$K$2:$K$8</definedName>
     <definedName name="EdadesAmplitud">Video6!$D$13</definedName>
     <definedName name="EdadesDatos">Video6!$B$2:$K$7</definedName>
     <definedName name="EdadesIntervalo">Video6!$D$12</definedName>
@@ -58,6 +51,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -87,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="103">
   <si>
     <t>Datos</t>
   </si>
@@ -391,6 +385,12 @@
   <si>
     <t>63-73</t>
   </si>
+  <si>
+    <t>Cantidad de Hijos (xi)</t>
+  </si>
+  <si>
+    <t>Cantidad de Mujeres (fi)</t>
+  </si>
 </sst>
 </file>
 
@@ -572,10 +572,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -589,6 +589,119 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -620,47 +733,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -746,7 +819,24 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -765,6 +855,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -780,7 +888,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -795,6 +907,25 @@
     <dxf>
       <font>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -840,65 +971,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -941,79 +1014,6 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -3460,15 +3460,559 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Gráfico de Bastones</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Bastones!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bastones!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-FA96-4FE7-BF72-0F1E95561EFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1858531775"/>
+        <c:axId val="1858510975"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1858531775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Cantidad de Hijos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1858510975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1858510975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Cantidad de Mujeres</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1858531775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3506,7 +4050,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{89584255-5F1E-4EB5-9F7B-9B5CACFA1BA2}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>f</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3594,10 +4138,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3635,7 +4179,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{38C7C52D-5630-4EFF-981F-C5B8508A3F53}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>f</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3918,6 +4462,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6439,6 +7023,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6610,7 +7697,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="76201" y="1962149"/>
+              <a:off x="76201" y="2152649"/>
               <a:ext cx="3952874" cy="2724151"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6717,6 +7804,47 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E84B8D-4DDB-210A-AEF7-C33C8F052C6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6874,18 +8002,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8629281-7C0C-4B7C-A02E-13A553704674}" name="Tabla7" displayName="Tabla7" ref="A1:F9" totalsRowCount="1" headerRowDxfId="23" dataDxfId="21" totalsRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8629281-7C0C-4B7C-A02E-13A553704674}" name="Tabla7" displayName="Tabla7" ref="A1:F9" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BE86102C-2EF1-4B15-9517-152982D38530}" name="Peso" totalsRowLabel="Total" dataDxfId="29" totalsRowDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{BFDB7706-FF93-4D45-8BD2-E4D05917E6E5}" name="x" dataDxfId="28" totalsRowDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{549AEC2D-881B-4C84-9D83-D78CD94F106F}" name="f" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{294955CF-84B2-4F2A-A869-2F48DF58FB93}" name="Fac" dataDxfId="26" totalsRowDxfId="17">
+    <tableColumn id="1" xr3:uid="{BE86102C-2EF1-4B15-9517-152982D38530}" name="Peso" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{BFDB7706-FF93-4D45-8BD2-E4D05917E6E5}" name="x" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{549AEC2D-881B-4C84-9D83-D78CD94F106F}" name="f" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{294955CF-84B2-4F2A-A869-2F48DF58FB93}" name="Fac" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3DBE6DBB-20A7-4C1D-9532-544BD6CC5EA6}" name="fr" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="16">
+    <tableColumn id="5" xr3:uid="{3DBE6DBB-20A7-4C1D-9532-544BD6CC5EA6}" name="fr" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>Tabla7[[#This Row],[f]]/Tabla7[[#Totals],[f]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{89276538-8C50-4975-B4F1-377877667554}" name="%" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="15">
+    <tableColumn id="6" xr3:uid="{89276538-8C50-4975-B4F1-377877667554}" name="%" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>Tabla7[[#This Row],[fr]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6896,20 +8024,31 @@
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E0C5C18F-89DA-4B86-8F8B-E0F8AAD442FB}" name="Tabla79" displayName="Tabla79" ref="I1:N9" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FFB1FDF1-9B47-4582-A729-82B1F9484E84}" name="Edad" totalsRowLabel="Total" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8087F899-024F-4CF7-970F-389C51A41461}" name="x" dataDxfId="7" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00CA0D8D-66C7-440D-B2B6-34C9A7E8C573}" name="f" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{A560F1DC-BD84-4704-8CF7-5BE995D34B4B}" name="Fac" dataDxfId="9" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{FFB1FDF1-9B47-4582-A729-82B1F9484E84}" name="Edad" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{8087F899-024F-4CF7-970F-389C51A41461}" name="x" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00CA0D8D-66C7-440D-B2B6-34C9A7E8C573}" name="f" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{A560F1DC-BD84-4704-8CF7-5BE995D34B4B}" name="Fac" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>SUM(INDEX(Tabla79[f],1):Tabla79[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B675E33D-10B1-475E-8B92-933C90D17699}" name="fr" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="1">
+    <tableColumn id="5" xr3:uid="{B675E33D-10B1-475E-8B92-933C90D17699}" name="fr" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabla79[[#This Row],[f]]/Tabla79[[#Totals],[f]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1D684A39-A130-4CCA-A76F-A1767162661E}" name="%" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="0">
+    <tableColumn id="6" xr3:uid="{1D684A39-A130-4CCA-A76F-A1767162661E}" name="%" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabla79[[#This Row],[fr]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5CDA39C8-FB0E-4F3C-9238-788EDC495411}" name="Tabla9" displayName="Tabla9" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{5CDA39C8-FB0E-4F3C-9238-788EDC495411}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0D93A850-DD4C-4219-834E-FD018C92D1DD}" name="Cantidad de Hijos (xi)"/>
+    <tableColumn id="2" xr3:uid="{B8B7DB5F-4838-4CD4-A99F-B964123CEF9E}" name="Cantidad de Mujeres (fi)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7248,21 +8387,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -10522,7 +11661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EAA00E-FA50-4C4C-830E-B536382A57E9}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I8" workbookViewId="0">
+    <sheetView topLeftCell="I8" workbookViewId="0">
       <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
@@ -10593,7 +11732,7 @@
         <f>Tabla7[[#This Row],[fr]]*100</f>
         <v>2.5</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>94</v>
       </c>
       <c r="J2" s="23">
@@ -10637,7 +11776,7 @@
         <f>Tabla7[[#This Row],[fr]]*100</f>
         <v>22.5</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="30" t="s">
         <v>95</v>
       </c>
       <c r="J3" s="23">
@@ -10681,7 +11820,7 @@
         <f>Tabla7[[#This Row],[fr]]*100</f>
         <v>35</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="30" t="s">
         <v>96</v>
       </c>
       <c r="J4" s="23">
@@ -10725,7 +11864,7 @@
         <f>Tabla7[[#This Row],[fr]]*100</f>
         <v>17.5</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="30" t="s">
         <v>97</v>
       </c>
       <c r="J5" s="23">
@@ -10769,7 +11908,7 @@
         <f>Tabla7[[#This Row],[fr]]*100</f>
         <v>10</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="30" t="s">
         <v>98</v>
       </c>
       <c r="J6" s="23">
@@ -10813,7 +11952,7 @@
         <f>Tabla7[[#This Row],[fr]]*100</f>
         <v>7.5</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="30" t="s">
         <v>99</v>
       </c>
       <c r="J7" s="23">
@@ -10857,7 +11996,7 @@
         <f>Tabla7[[#This Row],[fr]]*100</f>
         <v>5</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="30" t="s">
         <v>100</v>
       </c>
       <c r="J8" s="23">
@@ -10942,4 +12081,75 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81996251-C975-4A36-8395-81A2049F865B}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/P&E/Clase 02.xlsx
+++ b/P&E/Clase 02.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615EA74E-AF74-4BC7-B0A4-0F45DCAF3AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6549FE-F7B8-47F1-8FBA-0ECDA332BA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Video3" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Bastones" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Histograma!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Histograma!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Histograma!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Histograma!$I$2:$I$8</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Histograma!$K$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Histograma!$K$2:$K$8</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Histograma!$I$2:$I$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Histograma!$K$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Histograma!$K$2:$K$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Histograma!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Histograma!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Histograma!$C$2:$C$9</definedName>
     <definedName name="EdadesAmplitud">Video6!$D$13</definedName>
     <definedName name="EdadesDatos">Video6!$B$2:$K$7</definedName>
     <definedName name="EdadesIntervalo">Video6!$D$12</definedName>
@@ -51,7 +51,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="105">
   <si>
     <t>Datos</t>
   </si>
@@ -391,6 +390,12 @@
   <si>
     <t>Cantidad de Mujeres (fi)</t>
   </si>
+  <si>
+    <t>Materias (x)</t>
+  </si>
+  <si>
+    <t>Alumnos (f)</t>
+  </si>
 </sst>
 </file>
 
@@ -581,7 +586,13 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="80">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3539,6 +3550,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bastones!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad de Mujeres (fi)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
@@ -3553,6 +3575,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4950-48B9-A374-9BC0C6A38D18}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3567,6 +3594,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4950-48B9-A374-9BC0C6A38D18}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3581,6 +3613,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4950-48B9-A374-9BC0C6A38D18}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3595,6 +3632,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4950-48B9-A374-9BC0C6A38D18}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3609,6 +3651,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4950-48B9-A374-9BC0C6A38D18}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4004,15 +4051,876 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cantidad de materias que cursa una persona por cuatrimestre</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bastones!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alumnos (f)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Bastones!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bastones!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E7A-4E39-B491-BA634D18D52C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="572998776"/>
+        <c:axId val="573005336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="572998776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Cantidad de materias</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573005336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="573005336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Cantidad de personas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572998776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bastones!$M$2:$M$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Bastones!$M$2:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-479D-4ECA-A988-F429EF318D49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="572635208"/>
+        <c:axId val="572637504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="572635208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572637504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="572637504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572635208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4050,7 +4958,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{89584255-5F1E-4EB5-9F7B-9B5CACFA1BA2}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>f</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4138,10 +5046,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4179,7 +5087,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{38C7C52D-5630-4EFF-981F-C5B8508A3F53}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>f</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4502,6 +5410,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7177,6 +8165,1038 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7847,21 +9867,93 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8505069A-B122-D335-8D58-7FA95B2B794B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA5110D-5FCE-B9B2-5199-0CB984B7CD25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaEjercicio" displayName="TablaEjercicio" ref="A1:E8" totalsRowCount="1" headerRowDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaEjercicio" displayName="TablaEjercicio" ref="A1:E8" totalsRowCount="1" headerRowDxfId="79">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
     <sortCondition descending="1" ref="B2"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Causa" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Frecuencia" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Frecuencia relativa porcentual" totalsRowFunction="sum" dataDxfId="76">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Frecuencia relativa porcentual" totalsRowFunction="sum" dataDxfId="78">
       <calculatedColumnFormula>ROUND(TablaEjercicio[[#This Row],[Frecuencia]]/TablaEjercicio[[#Totals],[Frecuencia]]*100,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frecuencia relativa porcentual acumulada" dataDxfId="75">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frecuencia relativa porcentual acumulada" dataDxfId="77">
       <calculatedColumnFormula>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{6967DDD7-2B34-4899-8D09-AEB99E7DDD02}" name="80-20"/>
@@ -7870,33 +9962,53 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A3CBAEA1-C896-42C3-BF6B-870975EA0A15}" name="Tabla911" displayName="Tabla911" ref="G1:H6" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{97660224-32B9-40D7-B082-1780EDCD4767}" name="Materias (x)"/>
+    <tableColumn id="2" xr3:uid="{F9E3F17F-BB4E-4EC2-BD88-460C5D15453B}" name="Alumnos (f)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{BEF1FCD4-8237-4F05-AE75-C747818A2F82}" name="Tabla912" displayName="Tabla912" ref="L1:M10" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0882C26D-6EA1-4CAC-9A07-2704EEE34CF5}" name="Cantidad de Hijos (xi)"/>
+    <tableColumn id="3" xr3:uid="{7373EDD8-0513-4124-A09F-28E9605C2FCD}" name="Fac" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60079D04-1883-4ABC-A664-71548EED8847}" name="Tabla2" displayName="Tabla2" ref="L13:S21" totalsRowCount="1">
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{0A53712E-2CE1-4D3E-835E-053851610F89}" name="Intervalo" dataDxfId="74">
+    <tableColumn id="8" xr3:uid="{0A53712E-2CE1-4D3E-835E-053851610F89}" name="Intervalo" dataDxfId="76">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{95B66EDA-4894-4D52-B862-AD79C4B55BA8}" name="Li" dataDxfId="73">
+    <tableColumn id="1" xr3:uid="{95B66EDA-4894-4D52-B862-AD79C4B55BA8}" name="Li" dataDxfId="75">
       <calculatedColumnFormula array="1">IF(Tabla2[[#This Row],[Intervalo]]=1,VelocidadMinima,INDEX(Tabla2[Ls],Tabla2[[#This Row],[Intervalo]]-1))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{DA0E75B8-9B26-4EEA-9DB3-F98B1F47E516}" name="Ls">
       <calculatedColumnFormula>Tabla2[[#This Row],[Li]]+VelocidadAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A442407E-9BF8-48AD-9F38-117CC71388A0}" name="X" dataDxfId="72">
+    <tableColumn id="3" xr3:uid="{A442407E-9BF8-48AD-9F38-117CC71388A0}" name="X" dataDxfId="74">
       <calculatedColumnFormula>AVERAGE(Tabla2[[#This Row],[Li]],Tabla2[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{559733AA-4545-40B3-B4E4-BA1C4A552CC9}" name="f" totalsRowFunction="custom" dataDxfId="71">
+    <tableColumn id="4" xr3:uid="{559733AA-4545-40B3-B4E4-BA1C4A552CC9}" name="f" totalsRowFunction="custom" dataDxfId="73">
       <calculatedColumnFormula>COUNTIFS(VelocidadDatos,"&gt;="&amp;Tabla2[[#This Row],[Li]],VelocidadDatos,"&lt;"&amp;Tabla2[[#This Row],[Ls]])</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[f])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9513426F-2D77-4DB7-9E3C-FDA866D3F828}" name="F2" dataDxfId="70">
+    <tableColumn id="5" xr3:uid="{9513426F-2D77-4DB7-9E3C-FDA866D3F828}" name="F2" dataDxfId="72">
       <calculatedColumnFormula>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{898808BA-7B1D-423A-AFC5-36F396340D6F}" name="fr" totalsRowFunction="custom" dataDxfId="69">
+    <tableColumn id="6" xr3:uid="{898808BA-7B1D-423A-AFC5-36F396340D6F}" name="fr" totalsRowFunction="custom" dataDxfId="71">
       <calculatedColumnFormula>Tabla2[[#This Row],[f]]/COUNT(VelocidadDatos)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[fr])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54A61169-26D4-40D1-AB37-CC7B3CFF951D}" name="%" totalsRowFunction="custom" dataDxfId="68">
+    <tableColumn id="7" xr3:uid="{54A61169-26D4-40D1-AB37-CC7B3CFF951D}" name="%" totalsRowFunction="custom" dataDxfId="70">
       <calculatedColumnFormula>Tabla2[[#This Row],[fr]]*100</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[%])</totalsRowFormula>
     </tableColumn>
@@ -7906,30 +10018,30 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8A81EB00-321D-4B93-AEDE-266C0C67A6F6}" name="Tabla3" displayName="Tabla3" ref="M1:T9" totalsRowCount="1" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8A81EB00-321D-4B93-AEDE-266C0C67A6F6}" name="Tabla3" displayName="Tabla3" ref="M1:T9" totalsRowCount="1" headerRowDxfId="69" dataDxfId="68">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{232F9B45-447A-40B7-B74F-4FE7C9BE2603}" name="Intervalo" totalsRowLabel="Total" dataDxfId="65" totalsRowDxfId="64">
+    <tableColumn id="1" xr3:uid="{232F9B45-447A-40B7-B74F-4FE7C9BE2603}" name="Intervalo" totalsRowLabel="Total" dataDxfId="67" totalsRowDxfId="66">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4D118E85-6EA7-480C-B956-1F53E4957845}" name="Li" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="2" xr3:uid="{4D118E85-6EA7-480C-B956-1F53E4957845}" name="Li" dataDxfId="65" totalsRowDxfId="64">
       <calculatedColumnFormula array="1">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E5BED6C7-BE74-45ED-B47E-F7B1E786DAB0}" name="Ls" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="3" xr3:uid="{E5BED6C7-BE74-45ED-B47E-F7B1E786DAB0}" name="Ls" dataDxfId="63" totalsRowDxfId="62">
       <calculatedColumnFormula>Tabla3[[#This Row],[Li]]+EdadesAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{415AB08A-FAE7-4C22-A0FA-9190C0850950}" name="x" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="4" xr3:uid="{415AB08A-FAE7-4C22-A0FA-9190C0850950}" name="x" dataDxfId="61" totalsRowDxfId="60">
       <calculatedColumnFormula>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A44A0501-9BA4-4EC2-A260-0DB545AE4011}" name="Fab" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="5" xr3:uid="{A44A0501-9BA4-4EC2-A260-0DB545AE4011}" name="Fab" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58">
       <calculatedColumnFormula>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{68C54D13-ACDA-4A0A-A339-895361D688D3}" name="Fac" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="6" xr3:uid="{68C54D13-ACDA-4A0A-A339-895361D688D3}" name="Fac" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D98175C7-3596-4076-B515-7BCE9AD30C3E}" name="Fre" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="7" xr3:uid="{D98175C7-3596-4076-B515-7BCE9AD30C3E}" name="Fre" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{910DF734-058E-4C54-9B3F-E2EECED6859C}" name="Porcentaje" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="8" xr3:uid="{910DF734-058E-4C54-9B3F-E2EECED6859C}" name="Porcentaje" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>Tabla3[[#This Row],[Fre]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7938,30 +10050,30 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F3DE1B53-3FA1-4535-97AB-C3383C2399DC}" name="HorasTabla" displayName="HorasTabla" ref="M22:T30" totalsRowCount="1" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F3DE1B53-3FA1-4535-97AB-C3383C2399DC}" name="HorasTabla" displayName="HorasTabla" ref="M22:T30" totalsRowCount="1" headerRowDxfId="51" dataDxfId="50">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7E0FFDAC-17B2-487B-90CE-01301CE9120F}" name="Interval" totalsRowLabel="Total" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="1" xr3:uid="{7E0FFDAC-17B2-487B-90CE-01301CE9120F}" name="Interval" totalsRowLabel="Total" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A572D211-8943-48C3-94B5-77627F28FB47}" name="Li" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="2" xr3:uid="{A572D211-8943-48C3-94B5-77627F28FB47}" name="Li" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula array="1">IF(HorasTabla[[#This Row],[Interval]]=1,HorasMinimo,INDEX(HorasTabla[Ls],HorasTabla[[#This Row],[Interval]]-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5F43143E-70A3-4310-AAD3-C8718D116957}" name="Ls" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="3" xr3:uid="{5F43143E-70A3-4310-AAD3-C8718D116957}" name="Ls" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>HorasTabla[[#This Row],[Li]]+HorasAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EF0CC855-F805-473D-BE26-69CBF1656CCE}" name="x" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="4" xr3:uid="{EF0CC855-F805-473D-BE26-69CBF1656CCE}" name="x" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>AVERAGE(HorasTabla[[#This Row],[Li]],HorasTabla[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D7C90DA4-E208-4D98-99DD-4C3F92306AC0}" name="Fab" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="5" xr3:uid="{D7C90DA4-E208-4D98-99DD-4C3F92306AC0}" name="Fab" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>COUNTIFS(HorasDatos,"&gt;="&amp;HorasTabla[[#This Row],[Li]],HorasDatos,"&lt;"&amp;HorasTabla[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7CD30B42-13D9-4431-BA16-F5DE4FDE8893}" name="Fac" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="6" xr3:uid="{7CD30B42-13D9-4431-BA16-F5DE4FDE8893}" name="Fac" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>SUM(INDEX(HorasTabla[Fab],1):HorasTabla[[#This Row],[Fab]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D6F72C58-6AB5-4E12-ACF1-8F5447E7AA37}" name="Fre" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="7" xr3:uid="{D6F72C58-6AB5-4E12-ACF1-8F5447E7AA37}" name="Fre" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>HorasTabla[[#This Row],[Fab]]/COUNT(HorasDatos)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A11D84D-8745-4BB3-A4CC-9EB2D4633332}" name="Porcent" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="8" xr3:uid="{6A11D84D-8745-4BB3-A4CC-9EB2D4633332}" name="Porcent" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>HorasTabla[[#This Row],[Fre]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7977,7 +10089,7 @@
     <tableColumn id="2" xr3:uid="{99A25B33-85B8-4325-8EBD-BAE8B7A93989}" name="fab" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{90CBD1DB-3918-46C0-95A8-48560759B6D5}" name="Fac"/>
     <tableColumn id="4" xr3:uid="{C5BAABD4-C2D7-4413-93D3-491B2421D260}" name="fre" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{3E04E743-67C4-4E4A-8977-5A65F2C68F13}" name="%" totalsRowFunction="sum" dataDxfId="31">
+    <tableColumn id="5" xr3:uid="{3E04E743-67C4-4E4A-8977-5A65F2C68F13}" name="%" totalsRowFunction="sum" dataDxfId="33">
       <calculatedColumnFormula>EdadesTabla[[#This Row],[fre]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7993,7 +10105,7 @@
     <tableColumn id="2" xr3:uid="{876A90DD-0C14-4779-A3FD-B77359066D18}" name="fab" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{C84660E0-B005-4A84-898C-DA400BC950AA}" name="Fac"/>
     <tableColumn id="4" xr3:uid="{AADD1174-3044-45E1-9509-D9C09B92F316}" name="fre" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{059DF08B-3977-4BA9-8867-8CFF174F255C}" name="%" totalsRowFunction="sum" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{059DF08B-3977-4BA9-8867-8CFF174F255C}" name="%" totalsRowFunction="sum" dataDxfId="32">
       <calculatedColumnFormula>EdadesTabla7[[#This Row],[fre]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8002,18 +10114,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8629281-7C0C-4B7C-A02E-13A553704674}" name="Tabla7" displayName="Tabla7" ref="A1:F9" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8629281-7C0C-4B7C-A02E-13A553704674}" name="Tabla7" displayName="Tabla7" ref="A1:F9" totalsRowCount="1" headerRowDxfId="31" dataDxfId="30" totalsRowDxfId="29">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BE86102C-2EF1-4B15-9517-152982D38530}" name="Peso" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{BFDB7706-FF93-4D45-8BD2-E4D05917E6E5}" name="x" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{549AEC2D-881B-4C84-9D83-D78CD94F106F}" name="f" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{294955CF-84B2-4F2A-A869-2F48DF58FB93}" name="Fac" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="1" xr3:uid="{BE86102C-2EF1-4B15-9517-152982D38530}" name="Peso" totalsRowLabel="Total" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{BFDB7706-FF93-4D45-8BD2-E4D05917E6E5}" name="x" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{549AEC2D-881B-4C84-9D83-D78CD94F106F}" name="f" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{294955CF-84B2-4F2A-A869-2F48DF58FB93}" name="Fac" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3DBE6DBB-20A7-4C1D-9532-544BD6CC5EA6}" name="fr" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="5" xr3:uid="{3DBE6DBB-20A7-4C1D-9532-544BD6CC5EA6}" name="fr" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>Tabla7[[#This Row],[f]]/Tabla7[[#Totals],[f]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{89276538-8C50-4975-B4F1-377877667554}" name="%" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="6" xr3:uid="{89276538-8C50-4975-B4F1-377877667554}" name="%" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>Tabla7[[#This Row],[fr]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8022,18 +10134,18 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E0C5C18F-89DA-4B86-8F8B-E0F8AAD442FB}" name="Tabla79" displayName="Tabla79" ref="I1:N9" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E0C5C18F-89DA-4B86-8F8B-E0F8AAD442FB}" name="Tabla79" displayName="Tabla79" ref="I1:N9" totalsRowCount="1" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FFB1FDF1-9B47-4582-A729-82B1F9484E84}" name="Edad" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{8087F899-024F-4CF7-970F-389C51A41461}" name="x" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00CA0D8D-66C7-440D-B2B6-34C9A7E8C573}" name="f" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{A560F1DC-BD84-4704-8CF7-5BE995D34B4B}" name="Fac" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="1" xr3:uid="{FFB1FDF1-9B47-4582-A729-82B1F9484E84}" name="Edad" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{8087F899-024F-4CF7-970F-389C51A41461}" name="x" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00CA0D8D-66C7-440D-B2B6-34C9A7E8C573}" name="f" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{A560F1DC-BD84-4704-8CF7-5BE995D34B4B}" name="Fac" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>SUM(INDEX(Tabla79[f],1):Tabla79[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B675E33D-10B1-475E-8B92-933C90D17699}" name="fr" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="5" xr3:uid="{B675E33D-10B1-475E-8B92-933C90D17699}" name="fr" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabla79[[#This Row],[f]]/Tabla79[[#Totals],[f]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1D684A39-A130-4CCA-A76F-A1767162661E}" name="%" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="6" xr3:uid="{1D684A39-A130-4CCA-A76F-A1767162661E}" name="%" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabla79[[#This Row],[fr]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8042,13 +10154,15 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5CDA39C8-FB0E-4F3C-9238-788EDC495411}" name="Tabla9" displayName="Tabla9" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{5CDA39C8-FB0E-4F3C-9238-788EDC495411}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5CDA39C8-FB0E-4F3C-9238-788EDC495411}" name="Tabla9" displayName="Tabla9" ref="A1:C6" totalsRowShown="0">
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{0D93A850-DD4C-4219-834E-FD018C92D1DD}" name="Cantidad de Hijos (xi)"/>
     <tableColumn id="2" xr3:uid="{B8B7DB5F-4838-4CD4-A99F-B964123CEF9E}" name="Cantidad de Mujeres (fi)"/>
+    <tableColumn id="3" xr3:uid="{54A8C9DE-2FC9-48F4-AC36-24CA71B6CF19}" name="Fac" dataDxfId="1">
+      <calculatedColumnFormula>SUM(INDEX(Tabla9[Cantidad de Mujeres (fi)],1):Tabla9[[#This Row],[Cantidad de Mujeres (fi)]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -12085,10 +14199,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81996251-C975-4A36-8395-81A2049F865B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12097,59 +14211,188 @@
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>102</v>
       </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
+      <c r="C2">
+        <f>SUM(INDEX(Tabla9[Cantidad de Mujeres (fi)],1):Tabla9[[#This Row],[Cantidad de Mujeres (fi)]])</f>
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
+      <c r="C3">
+        <f>SUM(INDEX(Tabla9[Cantidad de Mujeres (fi)],1):Tabla9[[#This Row],[Cantidad de Mujeres (fi)]])</f>
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
+      <c r="C4">
+        <f>SUM(INDEX(Tabla9[Cantidad de Mujeres (fi)],1):Tabla9[[#This Row],[Cantidad de Mujeres (fi)]])</f>
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
+      <c r="C5">
+        <f>SUM(INDEX(Tabla9[Cantidad de Mujeres (fi)],1):Tabla9[[#This Row],[Cantidad de Mujeres (fi)]])</f>
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>3</v>
+      </c>
+      <c r="C6">
+        <f>SUM(INDEX(Tabla9[Cantidad de Mujeres (fi)],1):Tabla9[[#This Row],[Cantidad de Mujeres (fi)]])</f>
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/P&E/Clase 02.xlsx
+++ b/P&E/Clase 02.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6549FE-F7B8-47F1-8FBA-0ECDA332BA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63F0A08-69A9-4B76-AE3B-ACE546B4E02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,7 @@
     <sheet name="GBarras" sheetId="5" r:id="rId5"/>
     <sheet name="Histograma" sheetId="6" r:id="rId6"/>
     <sheet name="Bastones" sheetId="7" r:id="rId7"/>
+    <sheet name="Escalonado" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Histograma!$I$2:$I$8</definedName>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="106">
   <si>
     <t>Datos</t>
   </si>
@@ -396,6 +397,9 @@
   <si>
     <t>Alumnos (f)</t>
   </si>
+  <si>
+    <t>FAA</t>
+  </si>
 </sst>
 </file>
 
@@ -586,7 +590,10 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="81">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -4141,6 +4148,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
@@ -4155,6 +4171,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-80FB-4FAF-9538-E9EF018F1676}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4162,13 +4183,18 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-80FB-4FAF-9538-E9EF018F1676}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4176,13 +4202,18 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-80FB-4FAF-9538-E9EF018F1676}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4190,13 +4221,18 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-80FB-4FAF-9538-E9EF018F1676}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4204,13 +4240,18 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-80FB-4FAF-9538-E9EF018F1676}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:numRef>
@@ -4278,6 +4319,103 @@
         <c:axId val="572998776"/>
         <c:axId val="573005336"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bastones!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Bastones!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bastones!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-80FB-4FAF-9538-E9EF018F1676}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="572998776"/>
+        <c:axId val="573005336"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="572998776"/>
         <c:scaling>
@@ -4581,82 +4719,28 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Bastones!$M$2:$M$10</c:f>
+              <c:f>Escalonado!$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23</c:v>
+                  <c:v>Fac</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -4665,11 +4749,59 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>Bastones!$M$2:$M$10</c:f>
+              <c:f>Escalonado!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Escalonado!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4677,36 +4809,36 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-479D-4ECA-A988-F429EF318D49}"/>
+              <c16:uniqueId val="{00000000-342D-4D3B-8C7D-A524257E47AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4718,17 +4850,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="572635208"/>
-        <c:axId val="572637504"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="572635208"/>
+        <c:axId val="575685360"/>
+        <c:axId val="575686016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="575685360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4738,8 +4883,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -4766,15 +4911,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572637504"/>
+        <c:crossAx val="575686016"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="572637504"/>
+        <c:axId val="575686016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4800,8 +4942,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4825,9 +4973,9 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572635208"/>
+        <c:crossAx val="575685360"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4837,46 +4985,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -9035,7 +9145,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9062,8 +9172,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9143,11 +9253,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9158,11 +9263,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9174,7 +9274,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9194,9 +9294,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9209,10 +9306,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9252,22 +9349,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9372,8 +9470,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9505,19 +9603,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9531,6 +9630,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9903,29 +10013,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA5110D-5FCE-B9B2-5199-0CB984B7CD25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EEBEDF9-DF81-4AE2-866E-85C006B1C749}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9933,7 +10050,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9943,17 +10060,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaEjercicio" displayName="TablaEjercicio" ref="A1:E8" totalsRowCount="1" headerRowDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaEjercicio" displayName="TablaEjercicio" ref="A1:E8" totalsRowCount="1" headerRowDxfId="80">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
     <sortCondition descending="1" ref="B2"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Causa" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Frecuencia" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Frecuencia relativa porcentual" totalsRowFunction="sum" dataDxfId="78">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Frecuencia relativa porcentual" totalsRowFunction="sum" dataDxfId="79">
       <calculatedColumnFormula>ROUND(TablaEjercicio[[#This Row],[Frecuencia]]/TablaEjercicio[[#Totals],[Frecuencia]]*100,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frecuencia relativa porcentual acumulada" dataDxfId="77">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Frecuencia relativa porcentual acumulada" dataDxfId="78">
       <calculatedColumnFormula>SUM(INDEX(TablaEjercicio[Frecuencia relativa porcentual],1):TablaEjercicio[[#This Row],[Frecuencia relativa porcentual]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{6967DDD7-2B34-4899-8D09-AEB99E7DDD02}" name="80-20"/>
@@ -9963,20 +10080,26 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A3CBAEA1-C896-42C3-BF6B-870975EA0A15}" name="Tabla911" displayName="Tabla911" ref="G1:H6" totalsRowShown="0">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A3CBAEA1-C896-42C3-BF6B-870975EA0A15}" name="Tabla911" displayName="Tabla911" ref="G1:I6" totalsRowShown="0">
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{97660224-32B9-40D7-B082-1780EDCD4767}" name="Materias (x)"/>
     <tableColumn id="2" xr3:uid="{F9E3F17F-BB4E-4EC2-BD88-460C5D15453B}" name="Alumnos (f)"/>
+    <tableColumn id="3" xr3:uid="{2DA26827-1467-48FD-9A9F-9027CE057955}" name="FAA" dataDxfId="0">
+      <calculatedColumnFormula>SUM(INDEX(Tabla911[Alumnos (f)],1):Tabla911[[#This Row],[Alumnos (f)]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{BEF1FCD4-8237-4F05-AE75-C747818A2F82}" name="Tabla912" displayName="Tabla912" ref="L1:M10" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{BEF1FCD4-8237-4F05-AE75-C747818A2F82}" name="Tabla912" displayName="Tabla912" ref="B1:C10" totalsRowShown="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C10">
+    <sortCondition ref="C7:C10"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0882C26D-6EA1-4CAC-9A07-2704EEE34CF5}" name="Cantidad de Hijos (xi)"/>
-    <tableColumn id="3" xr3:uid="{7373EDD8-0513-4124-A09F-28E9605C2FCD}" name="Fac" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{7373EDD8-0513-4124-A09F-28E9605C2FCD}" name="Fac" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -9985,30 +10108,30 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60079D04-1883-4ABC-A664-71548EED8847}" name="Tabla2" displayName="Tabla2" ref="L13:S21" totalsRowCount="1">
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{0A53712E-2CE1-4D3E-835E-053851610F89}" name="Intervalo" dataDxfId="76">
+    <tableColumn id="8" xr3:uid="{0A53712E-2CE1-4D3E-835E-053851610F89}" name="Intervalo" dataDxfId="77">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{95B66EDA-4894-4D52-B862-AD79C4B55BA8}" name="Li" dataDxfId="75">
+    <tableColumn id="1" xr3:uid="{95B66EDA-4894-4D52-B862-AD79C4B55BA8}" name="Li" dataDxfId="76">
       <calculatedColumnFormula array="1">IF(Tabla2[[#This Row],[Intervalo]]=1,VelocidadMinima,INDEX(Tabla2[Ls],Tabla2[[#This Row],[Intervalo]]-1))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{DA0E75B8-9B26-4EEA-9DB3-F98B1F47E516}" name="Ls">
       <calculatedColumnFormula>Tabla2[[#This Row],[Li]]+VelocidadAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A442407E-9BF8-48AD-9F38-117CC71388A0}" name="X" dataDxfId="74">
+    <tableColumn id="3" xr3:uid="{A442407E-9BF8-48AD-9F38-117CC71388A0}" name="X" dataDxfId="75">
       <calculatedColumnFormula>AVERAGE(Tabla2[[#This Row],[Li]],Tabla2[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{559733AA-4545-40B3-B4E4-BA1C4A552CC9}" name="f" totalsRowFunction="custom" dataDxfId="73">
+    <tableColumn id="4" xr3:uid="{559733AA-4545-40B3-B4E4-BA1C4A552CC9}" name="f" totalsRowFunction="custom" dataDxfId="74">
       <calculatedColumnFormula>COUNTIFS(VelocidadDatos,"&gt;="&amp;Tabla2[[#This Row],[Li]],VelocidadDatos,"&lt;"&amp;Tabla2[[#This Row],[Ls]])</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[f])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9513426F-2D77-4DB7-9E3C-FDA866D3F828}" name="F2" dataDxfId="72">
+    <tableColumn id="5" xr3:uid="{9513426F-2D77-4DB7-9E3C-FDA866D3F828}" name="F2" dataDxfId="73">
       <calculatedColumnFormula>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{898808BA-7B1D-423A-AFC5-36F396340D6F}" name="fr" totalsRowFunction="custom" dataDxfId="71">
+    <tableColumn id="6" xr3:uid="{898808BA-7B1D-423A-AFC5-36F396340D6F}" name="fr" totalsRowFunction="custom" dataDxfId="72">
       <calculatedColumnFormula>Tabla2[[#This Row],[f]]/COUNT(VelocidadDatos)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[fr])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54A61169-26D4-40D1-AB37-CC7B3CFF951D}" name="%" totalsRowFunction="custom" dataDxfId="70">
+    <tableColumn id="7" xr3:uid="{54A61169-26D4-40D1-AB37-CC7B3CFF951D}" name="%" totalsRowFunction="custom" dataDxfId="71">
       <calculatedColumnFormula>Tabla2[[#This Row],[fr]]*100</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[%])</totalsRowFormula>
     </tableColumn>
@@ -10018,30 +10141,30 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8A81EB00-321D-4B93-AEDE-266C0C67A6F6}" name="Tabla3" displayName="Tabla3" ref="M1:T9" totalsRowCount="1" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8A81EB00-321D-4B93-AEDE-266C0C67A6F6}" name="Tabla3" displayName="Tabla3" ref="M1:T9" totalsRowCount="1" headerRowDxfId="70" dataDxfId="69">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{232F9B45-447A-40B7-B74F-4FE7C9BE2603}" name="Intervalo" totalsRowLabel="Total" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="1" xr3:uid="{232F9B45-447A-40B7-B74F-4FE7C9BE2603}" name="Intervalo" totalsRowLabel="Total" dataDxfId="68" totalsRowDxfId="67">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4D118E85-6EA7-480C-B956-1F53E4957845}" name="Li" dataDxfId="65" totalsRowDxfId="64">
+    <tableColumn id="2" xr3:uid="{4D118E85-6EA7-480C-B956-1F53E4957845}" name="Li" dataDxfId="66" totalsRowDxfId="65">
       <calculatedColumnFormula array="1">IF(Tabla3[[#This Row],[Intervalo]]=1,EdadesMinimo-(EdadesNuevoRango/2),INDEX(Tabla3[Ls],Tabla3[[#This Row],[Intervalo]]-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E5BED6C7-BE74-45ED-B47E-F7B1E786DAB0}" name="Ls" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="3" xr3:uid="{E5BED6C7-BE74-45ED-B47E-F7B1E786DAB0}" name="Ls" dataDxfId="64" totalsRowDxfId="63">
       <calculatedColumnFormula>Tabla3[[#This Row],[Li]]+EdadesAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{415AB08A-FAE7-4C22-A0FA-9190C0850950}" name="x" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="4" xr3:uid="{415AB08A-FAE7-4C22-A0FA-9190C0850950}" name="x" dataDxfId="62" totalsRowDxfId="61">
       <calculatedColumnFormula>AVERAGE(Tabla3[[#This Row],[Li]],Tabla3[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A44A0501-9BA4-4EC2-A260-0DB545AE4011}" name="Fab" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="5" xr3:uid="{A44A0501-9BA4-4EC2-A260-0DB545AE4011}" name="Fab" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59">
       <calculatedColumnFormula>COUNTIFS(EdadesDatos,"&gt;="&amp;Tabla3[[#This Row],[Li]],EdadesDatos,"&lt;"&amp;Tabla3[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{68C54D13-ACDA-4A0A-A339-895361D688D3}" name="Fac" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="6" xr3:uid="{68C54D13-ACDA-4A0A-A339-895361D688D3}" name="Fac" dataDxfId="58" totalsRowDxfId="57">
       <calculatedColumnFormula>SUM(INDEX(Tabla3[Fab],1):Tabla3[[#This Row],[Fab]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D98175C7-3596-4076-B515-7BCE9AD30C3E}" name="Fre" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="7" xr3:uid="{D98175C7-3596-4076-B515-7BCE9AD30C3E}" name="Fre" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55">
       <calculatedColumnFormula>Tabla3[[#This Row],[Fab]]/COUNT(EdadesDatos)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{910DF734-058E-4C54-9B3F-E2EECED6859C}" name="Porcentaje" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="8" xr3:uid="{910DF734-058E-4C54-9B3F-E2EECED6859C}" name="Porcentaje" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53">
       <calculatedColumnFormula>Tabla3[[#This Row],[Fre]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10050,30 +10173,30 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F3DE1B53-3FA1-4535-97AB-C3383C2399DC}" name="HorasTabla" displayName="HorasTabla" ref="M22:T30" totalsRowCount="1" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F3DE1B53-3FA1-4535-97AB-C3383C2399DC}" name="HorasTabla" displayName="HorasTabla" ref="M22:T30" totalsRowCount="1" headerRowDxfId="52" dataDxfId="51">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7E0FFDAC-17B2-487B-90CE-01301CE9120F}" name="Interval" totalsRowLabel="Total" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="1" xr3:uid="{7E0FFDAC-17B2-487B-90CE-01301CE9120F}" name="Interval" totalsRowLabel="Total" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A572D211-8943-48C3-94B5-77627F28FB47}" name="Li" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="2" xr3:uid="{A572D211-8943-48C3-94B5-77627F28FB47}" name="Li" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula array="1">IF(HorasTabla[[#This Row],[Interval]]=1,HorasMinimo,INDEX(HorasTabla[Ls],HorasTabla[[#This Row],[Interval]]-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5F43143E-70A3-4310-AAD3-C8718D116957}" name="Ls" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="3" xr3:uid="{5F43143E-70A3-4310-AAD3-C8718D116957}" name="Ls" dataDxfId="46" totalsRowDxfId="45">
       <calculatedColumnFormula>HorasTabla[[#This Row],[Li]]+HorasAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EF0CC855-F805-473D-BE26-69CBF1656CCE}" name="x" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="4" xr3:uid="{EF0CC855-F805-473D-BE26-69CBF1656CCE}" name="x" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>AVERAGE(HorasTabla[[#This Row],[Li]],HorasTabla[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D7C90DA4-E208-4D98-99DD-4C3F92306AC0}" name="Fab" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="5" xr3:uid="{D7C90DA4-E208-4D98-99DD-4C3F92306AC0}" name="Fab" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41">
       <calculatedColumnFormula>COUNTIFS(HorasDatos,"&gt;="&amp;HorasTabla[[#This Row],[Li]],HorasDatos,"&lt;"&amp;HorasTabla[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7CD30B42-13D9-4431-BA16-F5DE4FDE8893}" name="Fac" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="6" xr3:uid="{7CD30B42-13D9-4431-BA16-F5DE4FDE8893}" name="Fac" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula>SUM(INDEX(HorasTabla[Fab],1):HorasTabla[[#This Row],[Fab]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D6F72C58-6AB5-4E12-ACF1-8F5447E7AA37}" name="Fre" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="7" xr3:uid="{D6F72C58-6AB5-4E12-ACF1-8F5447E7AA37}" name="Fre" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>HorasTabla[[#This Row],[Fab]]/COUNT(HorasDatos)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6A11D84D-8745-4BB3-A4CC-9EB2D4633332}" name="Porcent" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="8" xr3:uid="{6A11D84D-8745-4BB3-A4CC-9EB2D4633332}" name="Porcent" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>HorasTabla[[#This Row],[Fre]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10089,7 +10212,7 @@
     <tableColumn id="2" xr3:uid="{99A25B33-85B8-4325-8EBD-BAE8B7A93989}" name="fab" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{90CBD1DB-3918-46C0-95A8-48560759B6D5}" name="Fac"/>
     <tableColumn id="4" xr3:uid="{C5BAABD4-C2D7-4413-93D3-491B2421D260}" name="fre" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{3E04E743-67C4-4E4A-8977-5A65F2C68F13}" name="%" totalsRowFunction="sum" dataDxfId="33">
+    <tableColumn id="5" xr3:uid="{3E04E743-67C4-4E4A-8977-5A65F2C68F13}" name="%" totalsRowFunction="sum" dataDxfId="34">
       <calculatedColumnFormula>EdadesTabla[[#This Row],[fre]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10105,7 +10228,7 @@
     <tableColumn id="2" xr3:uid="{876A90DD-0C14-4779-A3FD-B77359066D18}" name="fab" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{C84660E0-B005-4A84-898C-DA400BC950AA}" name="Fac"/>
     <tableColumn id="4" xr3:uid="{AADD1174-3044-45E1-9509-D9C09B92F316}" name="fre" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{059DF08B-3977-4BA9-8867-8CFF174F255C}" name="%" totalsRowFunction="sum" dataDxfId="32">
+    <tableColumn id="5" xr3:uid="{059DF08B-3977-4BA9-8867-8CFF174F255C}" name="%" totalsRowFunction="sum" dataDxfId="33">
       <calculatedColumnFormula>EdadesTabla7[[#This Row],[fre]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10114,18 +10237,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8629281-7C0C-4B7C-A02E-13A553704674}" name="Tabla7" displayName="Tabla7" ref="A1:F9" totalsRowCount="1" headerRowDxfId="31" dataDxfId="30" totalsRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8629281-7C0C-4B7C-A02E-13A553704674}" name="Tabla7" displayName="Tabla7" ref="A1:F9" totalsRowCount="1" headerRowDxfId="32" dataDxfId="31" totalsRowDxfId="30">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BE86102C-2EF1-4B15-9517-152982D38530}" name="Peso" totalsRowLabel="Total" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{BFDB7706-FF93-4D45-8BD2-E4D05917E6E5}" name="x" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{549AEC2D-881B-4C84-9D83-D78CD94F106F}" name="f" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{294955CF-84B2-4F2A-A869-2F48DF58FB93}" name="Fac" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="1" xr3:uid="{BE86102C-2EF1-4B15-9517-152982D38530}" name="Peso" totalsRowLabel="Total" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{BFDB7706-FF93-4D45-8BD2-E4D05917E6E5}" name="x" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{549AEC2D-881B-4C84-9D83-D78CD94F106F}" name="f" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{294955CF-84B2-4F2A-A869-2F48DF58FB93}" name="Fac" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>SUM(INDEX(Tabla7[f],1):Tabla7[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3DBE6DBB-20A7-4C1D-9532-544BD6CC5EA6}" name="fr" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="5" xr3:uid="{3DBE6DBB-20A7-4C1D-9532-544BD6CC5EA6}" name="fr" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>Tabla7[[#This Row],[f]]/Tabla7[[#Totals],[f]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{89276538-8C50-4975-B4F1-377877667554}" name="%" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="6" xr3:uid="{89276538-8C50-4975-B4F1-377877667554}" name="%" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>Tabla7[[#This Row],[fr]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10134,18 +10257,18 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E0C5C18F-89DA-4B86-8F8B-E0F8AAD442FB}" name="Tabla79" displayName="Tabla79" ref="I1:N9" totalsRowCount="1" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E0C5C18F-89DA-4B86-8F8B-E0F8AAD442FB}" name="Tabla79" displayName="Tabla79" ref="I1:N9" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FFB1FDF1-9B47-4582-A729-82B1F9484E84}" name="Edad" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{8087F899-024F-4CF7-970F-389C51A41461}" name="x" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00CA0D8D-66C7-440D-B2B6-34C9A7E8C573}" name="f" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{A560F1DC-BD84-4704-8CF7-5BE995D34B4B}" name="Fac" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{FFB1FDF1-9B47-4582-A729-82B1F9484E84}" name="Edad" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{8087F899-024F-4CF7-970F-389C51A41461}" name="x" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00CA0D8D-66C7-440D-B2B6-34C9A7E8C573}" name="f" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{A560F1DC-BD84-4704-8CF7-5BE995D34B4B}" name="Fac" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>SUM(INDEX(Tabla79[f],1):Tabla79[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B675E33D-10B1-475E-8B92-933C90D17699}" name="fr" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="5" xr3:uid="{B675E33D-10B1-475E-8B92-933C90D17699}" name="fr" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>Tabla79[[#This Row],[f]]/Tabla79[[#Totals],[f]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1D684A39-A130-4CCA-A76F-A1767162661E}" name="%" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="6" xr3:uid="{1D684A39-A130-4CCA-A76F-A1767162661E}" name="%" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>Tabla79[[#This Row],[fr]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10158,7 +10281,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{0D93A850-DD4C-4219-834E-FD018C92D1DD}" name="Cantidad de Hijos (xi)"/>
     <tableColumn id="2" xr3:uid="{B8B7DB5F-4838-4CD4-A99F-B964123CEF9E}" name="Cantidad de Mujeres (fi)"/>
-    <tableColumn id="3" xr3:uid="{54A8C9DE-2FC9-48F4-AC36-24CA71B6CF19}" name="Fac" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{54A8C9DE-2FC9-48F4-AC36-24CA71B6CF19}" name="Fac" dataDxfId="2">
       <calculatedColumnFormula>SUM(INDEX(Tabla9[Cantidad de Mujeres (fi)],1):Tabla9[[#This Row],[Cantidad de Mujeres (fi)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11065,7 +11188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -11262,7 +11385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:B35"/>
     </sheetView>
   </sheetViews>
@@ -14199,10 +14322,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81996251-C975-4A36-8395-81A2049F865B}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14211,7 +14334,7 @@
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -14227,14 +14350,11 @@
       <c r="H1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" t="s">
-        <v>66</v>
+      <c r="I1" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14251,14 +14371,12 @@
       <c r="H2">
         <v>4</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
+      <c r="I2">
+        <f>SUM(INDEX(Tabla911[Alumnos (f)],1):Tabla911[[#This Row],[Alumnos (f)]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14275,14 +14393,12 @@
       <c r="H3">
         <v>5</v>
       </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
+      <c r="I3">
+        <f>SUM(INDEX(Tabla911[Alumnos (f)],1):Tabla911[[#This Row],[Alumnos (f)]])</f>
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14299,14 +14415,12 @@
       <c r="H4">
         <v>8</v>
       </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
+      <c r="I4">
+        <f>SUM(INDEX(Tabla911[Alumnos (f)],1):Tabla911[[#This Row],[Alumnos (f)]])</f>
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14323,14 +14437,12 @@
       <c r="H5">
         <v>6</v>
       </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
+      <c r="I5">
+        <f>SUM(INDEX(Tabla911[Alumnos (f)],1):Tabla911[[#This Row],[Alumnos (f)]])</f>
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14341,58 +14453,126 @@
         <f>SUM(INDEX(Tabla9[Cantidad de Mujeres (fi)],1):Tabla9[[#This Row],[Cantidad de Mujeres (fi)]])</f>
         <v>26</v>
       </c>
+      <c r="E6">
+        <f>Tabla9[[#This Row],[Fac]]-C3</f>
+        <v>17</v>
+      </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
+      <c r="I6">
+        <f>SUM(INDEX(Tabla911[Alumnos (f)],1):Tabla911[[#This Row],[Alumnos (f)]])</f>
         <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAEE31F-E908-4825-B06F-2CE902BC783F}">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>